--- a/reports/raw-views/assets/tables/micro_lexical_richness.xlsx
+++ b/reports/raw-views/assets/tables/micro_lexical_richness.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N197"/>
+  <dimension ref="A1:N179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,10 +506,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1070101</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1070101</v>
       </c>
       <c r="B2" t="n">
         <v>68.94784009015012</v>
@@ -518,10 +516,10 @@
         <v>0.4465635716915131</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>0.8617878556251526</v>
@@ -539,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>41.5</v>
+        <v>21.25</v>
       </c>
       <c r="L2" t="n">
         <v>0.6948258280754089</v>
@@ -548,14 +546,12 @@
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>839.5</v>
+        <v>420.25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1070102</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1070102</v>
       </c>
       <c r="B3" t="n">
         <v>50.1066900773401</v>
@@ -564,10 +560,10 @@
         <v>0.7405539751052856</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>10.1875</v>
+        <v>19.375</v>
       </c>
       <c r="F3" t="n">
         <v>0.8512692451477051</v>
@@ -585,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>33.5</v>
+        <v>17.25</v>
       </c>
       <c r="L3" t="n">
         <v>0.6107354164123535</v>
@@ -594,14 +590,12 @@
         <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>889</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1070103</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1070103</v>
       </c>
       <c r="B4" t="n">
         <v>21.83378256963162</v>
@@ -613,7 +607,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
         <v>0.5950314998626709</v>
@@ -631,7 +625,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>36.5</v>
+        <v>18.75</v>
       </c>
       <c r="L4" t="n">
         <v>0.4456367492675781</v>
@@ -640,14 +634,12 @@
         <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>846</v>
+        <v>423.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1070105</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1070105</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
@@ -657,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>7.5</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
         <v>0.6866968274116516</v>
@@ -672,10 +664,10 @@
         <v>0.4850305914878845</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="L5" t="n">
         <v>0.4556073546409607</v>
@@ -684,14 +676,12 @@
         <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>898</v>
+        <v>449.5</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1070106</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1070106</v>
       </c>
       <c r="B6" t="n">
         <v>54.94287602681522</v>
@@ -703,7 +693,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>4.875</v>
+        <v>8.75</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -721,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L6" t="n">
         <v>0.5821338891983032</v>
@@ -730,14 +720,12 @@
         <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>824</v>
+        <v>412.5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1070107</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1070107</v>
       </c>
       <c r="B7" t="n">
         <v>113.2879815677131</v>
@@ -749,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>6.1875</v>
+        <v>11.375</v>
       </c>
       <c r="F7" t="n">
         <v>0.846882700920105</v>
@@ -767,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>40</v>
+        <v>20.5</v>
       </c>
       <c r="L7" t="n">
         <v>0.4682013392448425</v>
@@ -776,14 +764,12 @@
         <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>902</v>
+        <v>451.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1070109</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1070109</v>
       </c>
       <c r="B8" t="n">
         <v>56.85</v>
@@ -792,10 +778,10 @@
         <v>0.6724001169204712</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>8.875</v>
+        <v>16.75</v>
       </c>
       <c r="F8" t="n">
         <v>0.7998970746994019</v>
@@ -813,7 +799,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="L8" t="n">
         <v>0.5171021819114685</v>
@@ -822,14 +808,12 @@
         <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>911.5</v>
+        <v>456.25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1070110</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1070110</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
@@ -839,13 +823,13 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="F9" t="n">
         <v>0.6150782108306885</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>4.333333333333333</v>
@@ -854,10 +838,10 @@
         <v>0.6272317171096802</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
         <v>0.4203052222728729</v>
@@ -866,24 +850,22 @@
         <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>806.5</v>
+        <v>403.75</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1070111</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>1070111</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>0.7473574876785278</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>3.8125</v>
+        <v>6.625</v>
       </c>
       <c r="F10" t="n">
         <v>0.8645196557044983</v>
@@ -901,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>46</v>
+        <v>23.5</v>
       </c>
       <c r="L10" t="n">
         <v>0.5445066690444946</v>
@@ -910,14 +892,12 @@
         <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>969.5</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1070112</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1070112</v>
       </c>
       <c r="B11" t="n">
         <v>24.63554861730597</v>
@@ -927,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1.875</v>
+        <v>2.75</v>
       </c>
       <c r="F11" t="n">
         <v>0.6626378297805786</v>
@@ -945,7 +925,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="L11" t="n">
         <v>0.4700775742530823</v>
@@ -954,14 +934,12 @@
         <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>830</v>
+        <v>415.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>1070113</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>1070113</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
@@ -971,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>5.875</v>
+        <v>10.75</v>
       </c>
       <c r="F12" t="n">
         <v>0.7909009456634521</v>
@@ -989,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L12" t="n">
         <v>0.3330167233943939</v>
@@ -998,24 +976,22 @@
         <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>815.5</v>
+        <v>408.25</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1070114</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>1070114</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
         <v>0.7299959659576416</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>9.1875</v>
+        <v>17.375</v>
       </c>
       <c r="F13" t="n">
         <v>0.8464430570602417</v>
@@ -1033,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L13" t="n">
         <v>0.572374701499939</v>
@@ -1042,14 +1018,12 @@
         <v>5</v>
       </c>
       <c r="N13" t="n">
-        <v>852.5</v>
+        <v>426.75</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1070115</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>1070115</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
@@ -1059,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>7.125</v>
+        <v>13.25</v>
       </c>
       <c r="F14" t="n">
         <v>0.9306353330612183</v>
@@ -1077,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>38.5</v>
+        <v>19.75</v>
       </c>
       <c r="L14" t="n">
         <v>0.5184723138809204</v>
@@ -1086,14 +1060,12 @@
         <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>853</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>1070117</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>1070117</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
@@ -1103,7 +1075,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>4.875</v>
+        <v>8.75</v>
       </c>
       <c r="F15" t="n">
         <v>0.8476237058639526</v>
@@ -1122,10 +1094,8 @@
       <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>1080101</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>1080101</v>
       </c>
       <c r="B16" t="n">
         <v>62.72934873047279</v>
@@ -1137,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>5.75</v>
+        <v>10.5</v>
       </c>
       <c r="F16" t="n">
         <v>0.7218666076660156</v>
@@ -1152,10 +1122,10 @@
         <v>0.7925670146942139</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="L16" t="n">
         <v>0.3591094315052032</v>
@@ -1164,14 +1134,12 @@
         <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>1044.5</v>
+        <v>522.75</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>1080102</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>1080102</v>
       </c>
       <c r="B17" t="n">
         <v>51.86112654756808</v>
@@ -1180,10 +1148,10 @@
         <v>0.654712438583374</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>9.4375</v>
+        <v>17.875</v>
       </c>
       <c r="F17" t="n">
         <v>0.8195036053657532</v>
@@ -1201,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>31.5</v>
+        <v>16.25</v>
       </c>
       <c r="L17" t="n">
         <v>0.3571753799915314</v>
@@ -1210,30 +1178,28 @@
         <v>5</v>
       </c>
       <c r="N17" t="n">
-        <v>1043.5</v>
+        <v>522.25</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1080103</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>1080103</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
         <v>0.6354497671127319</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>3.1875</v>
+        <v>5.375</v>
       </c>
       <c r="F18" t="n">
         <v>0.7220765352249146</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>4.25</v>
@@ -1242,10 +1208,10 @@
         <v>0.3230847120285034</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="L18" t="n">
         <v>0.3842054605484009</v>
@@ -1254,14 +1220,12 @@
         <v>5</v>
       </c>
       <c r="N18" t="n">
-        <v>923.5</v>
+        <v>462.25</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1080104</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>1080104</v>
       </c>
       <c r="B19" t="n">
         <v>74.71185213034178</v>
@@ -1270,10 +1234,10 @@
         <v>0.5380998849868774</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>3.8125</v>
+        <v>6.625</v>
       </c>
       <c r="F19" t="n">
         <v>0.8040767908096313</v>
@@ -1291,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>10.5</v>
+        <v>5.75</v>
       </c>
       <c r="L19" t="n">
         <v>0.345004141330719</v>
@@ -1300,14 +1264,12 @@
         <v>5</v>
       </c>
       <c r="N19" t="n">
-        <v>1006.5</v>
+        <v>503.75</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>1080105</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>1080105</v>
       </c>
       <c r="B20" t="n">
         <v>98.75738001100478</v>
@@ -1319,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>20.625</v>
+        <v>40.25</v>
       </c>
       <c r="F20" t="n">
         <v>0.7988125085830688</v>
@@ -1337,7 +1299,7 @@
         <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L20" t="n">
         <v>0.4212687611579895</v>
@@ -1346,14 +1308,12 @@
         <v>5</v>
       </c>
       <c r="N20" t="n">
-        <v>1051</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>1080106</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>1080106</v>
       </c>
       <c r="B21" t="n">
         <v>58.65776955602537</v>
@@ -1362,10 +1322,10 @@
         <v>0.7504193782806396</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>8.125</v>
+        <v>15.25</v>
       </c>
       <c r="F21" t="n">
         <v>0.6921337842941284</v>
@@ -1383,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>29.5</v>
+        <v>15.25</v>
       </c>
       <c r="L21" t="n">
         <v>0.274764209985733</v>
@@ -1392,14 +1352,12 @@
         <v>5</v>
       </c>
       <c r="N21" t="n">
-        <v>999.5</v>
+        <v>500.25</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>1080107</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>1080107</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
@@ -1409,13 +1367,13 @@
         <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>4.9375</v>
+        <v>8.875</v>
       </c>
       <c r="F22" t="n">
         <v>0.7661898136138916</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
         <v>16.97222222222222</v>
@@ -1427,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="L22" t="n">
         <v>0.3923847377300262</v>
@@ -1436,14 +1394,12 @@
         <v>5</v>
       </c>
       <c r="N22" t="n">
-        <v>879.5</v>
+        <v>440.25</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>1080108</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>1080108</v>
       </c>
       <c r="B23" t="n">
         <v>37.30007909827961</v>
@@ -1455,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>6.9375</v>
+        <v>12.875</v>
       </c>
       <c r="F23" t="n">
         <v>0.8148183226585388</v>
@@ -1470,10 +1426,10 @@
         <v>0.5639085173606873</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="L23" t="n">
         <v>0.4111796319484711</v>
@@ -1482,14 +1438,12 @@
         <v>5</v>
       </c>
       <c r="N23" t="n">
-        <v>1082</v>
+        <v>541.5</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>1080109</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>1080109</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
@@ -1499,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>6.75</v>
+        <v>12.5</v>
       </c>
       <c r="F24" t="n">
         <v>0.6221619844436646</v>
@@ -1514,10 +1468,10 @@
         <v>0.683545708656311</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>19.5</v>
+        <v>10.25</v>
       </c>
       <c r="L24" t="n">
         <v>0.4158812761306763</v>
@@ -1526,14 +1480,12 @@
         <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>670.5</v>
+        <v>335.75</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>1080110</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>1080110</v>
       </c>
       <c r="B25" t="n">
         <v>12.13236011131172</v>
@@ -1545,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F25" t="n">
         <v>0.5797702074050903</v>
@@ -1560,10 +1512,10 @@
         <v>0.7082325220108032</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>20.5</v>
+        <v>10.75</v>
       </c>
       <c r="L25" t="n">
         <v>0.2469782829284668</v>
@@ -1572,14 +1524,12 @@
         <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>919.5</v>
+        <v>460.25</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>1080111</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>1080111</v>
       </c>
       <c r="B26" t="n">
         <v>57.26373626373626</v>
@@ -1588,10 +1538,10 @@
         <v>0.8412248492240906</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>9.0625</v>
+        <v>17.125</v>
       </c>
       <c r="F26" t="n">
         <v>0.7480762600898743</v>
@@ -1609,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="L26" t="n">
         <v>0.4035640358924866</v>
@@ -1618,14 +1568,12 @@
         <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>1018</v>
+        <v>509.5</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>1080112</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>1080112</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
@@ -1635,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="n">
-        <v>6.25</v>
+        <v>11.5</v>
       </c>
       <c r="F27" t="n">
         <v>0.7866309881210327</v>
@@ -1653,7 +1601,7 @@
         <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L27" t="n">
         <v>0.4784495830535889</v>
@@ -1662,30 +1610,28 @@
         <v>5</v>
       </c>
       <c r="N27" t="n">
-        <v>841.5</v>
+        <v>421.25</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>1080113</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>1080113</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>0.6154610514640808</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>9.8125</v>
+        <v>18.625</v>
       </c>
       <c r="F28" t="n">
         <v>0.8362463712692261</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
         <v>14.66666666666667</v>
@@ -1697,7 +1643,7 @@
         <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>27.5</v>
+        <v>14.25</v>
       </c>
       <c r="L28" t="n">
         <v>0.3260641396045685</v>
@@ -1706,14 +1652,12 @@
         <v>5</v>
       </c>
       <c r="N28" t="n">
-        <v>891.5</v>
+        <v>446.25</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>1080114</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>1080114</v>
       </c>
       <c r="B29" t="n">
         <v>72.76285853490164</v>
@@ -1722,10 +1666,10 @@
         <v>0.814123809337616</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>4.125</v>
+        <v>7.25</v>
       </c>
       <c r="F29" t="n">
         <v>0.8158693313598633</v>
@@ -1740,10 +1684,10 @@
         <v>0.6506258845329285</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L29" t="n">
         <v>0.4461143910884857</v>
@@ -1752,14 +1696,12 @@
         <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>1028</v>
+        <v>514.5</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1080201</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>1080201</v>
       </c>
       <c r="B30" t="n">
         <v>85.49104861406386</v>
@@ -1771,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>6.75</v>
+        <v>12.5</v>
       </c>
       <c r="F30" t="n">
         <v>0.6646680235862732</v>
@@ -1786,10 +1728,10 @@
         <v>0.5413435697555542</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L30" t="n">
         <v>0.5761783123016357</v>
@@ -1798,14 +1740,12 @@
         <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>1058</v>
+        <v>529.5</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1080202</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>1080202</v>
       </c>
       <c r="B31" t="n">
         <v>47.32000000000004</v>
@@ -1814,10 +1754,10 @@
         <v>0.5196549892425537</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
         <v>0.8625658750534058</v>
@@ -1832,10 +1772,10 @@
         <v>0.4720396995544434</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
         <v>0.4710604250431061</v>
@@ -1844,14 +1784,12 @@
         <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>965.5</v>
+        <v>483.25</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>1080203</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>1080203</v>
       </c>
       <c r="B32" t="n">
         <v>58.18170958878592</v>
@@ -1860,10 +1798,10 @@
         <v>0.585332989692688</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
         <v>0.9636943340301514</v>
@@ -1881,7 +1819,7 @@
         <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="L32" t="n">
         <v>0.5699288845062256</v>
@@ -1890,14 +1828,12 @@
         <v>5</v>
       </c>
       <c r="N32" t="n">
-        <v>1137</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>1080301</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>1080301</v>
       </c>
       <c r="B33" t="n">
         <v>44.7251652848814</v>
@@ -1906,10 +1842,10 @@
         <v>0.8791057467460632</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
         <v>0.7121675610542297</v>
@@ -1924,10 +1860,10 @@
         <v>0.593518078327179</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>26.5</v>
+        <v>13.75</v>
       </c>
       <c r="L33" t="n">
         <v>0.5197461843490601</v>
@@ -1936,14 +1872,12 @@
         <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>1044.5</v>
+        <v>522.75</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>1080302</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>1080302</v>
       </c>
       <c r="B34" t="n">
         <v>42.63704739394163</v>
@@ -1952,10 +1886,10 @@
         <v>0.8632532358169556</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>3.875</v>
+        <v>6.75</v>
       </c>
       <c r="F34" t="n">
         <v>0.929176926612854</v>
@@ -1970,10 +1904,10 @@
         <v>0.8822783827781677</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L34" t="n">
         <v>0.4101955592632294</v>
@@ -1982,24 +1916,22 @@
         <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>1001.5</v>
+        <v>501.25</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>1080303</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>1080303</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
         <v>0.9046720266342163</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>3.5625</v>
+        <v>6.125</v>
       </c>
       <c r="F35" t="n">
         <v>0.808963418006897</v>
@@ -2014,10 +1946,10 @@
         <v>0.7217451333999634</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>25.5</v>
+        <v>13.25</v>
       </c>
       <c r="L35" t="n">
         <v>0.4133288860321045</v>
@@ -2026,14 +1958,12 @@
         <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>860.5</v>
+        <v>430.75</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>1080304</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>1080304</v>
       </c>
       <c r="B36" t="n">
         <v>13.79857151768449</v>
@@ -2045,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>7.4375</v>
+        <v>13.875</v>
       </c>
       <c r="F36" t="n">
         <v>0.8536567687988281</v>
@@ -2060,10 +1990,10 @@
         <v>0.6801987290382385</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="L36" t="n">
         <v>0.5570284724235535</v>
@@ -2072,14 +2002,12 @@
         <v>5</v>
       </c>
       <c r="N36" t="n">
-        <v>962.5</v>
+        <v>481.75</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>1080305</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>1080305</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
@@ -2089,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>2.125</v>
+        <v>3.25</v>
       </c>
       <c r="F37" t="n">
         <v>0.642186164855957</v>
@@ -2104,10 +2032,10 @@
         <v>0.4312816262245178</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L37" t="n">
         <v>0.475962370634079</v>
@@ -2116,14 +2044,12 @@
         <v>5</v>
       </c>
       <c r="N37" t="n">
-        <v>880</v>
+        <v>440.5</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>1080306</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>1080306</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
@@ -2133,7 +2059,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>5.0625</v>
+        <v>9.125</v>
       </c>
       <c r="F38" t="n">
         <v>0.9089840650558472</v>
@@ -2151,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="K38" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L38" t="n">
         <v>0.3944857120513916</v>
@@ -2160,14 +2086,12 @@
         <v>5</v>
       </c>
       <c r="N38" t="n">
-        <v>862.5</v>
+        <v>431.75</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>1080307</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>1080307</v>
       </c>
       <c r="B39" t="n">
         <v>17.89619490270187</v>
@@ -2176,10 +2100,10 @@
         <v>0.6466858983039856</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="n">
-        <v>7.6875</v>
+        <v>14.375</v>
       </c>
       <c r="F39" t="n">
         <v>0.7887897491455078</v>
@@ -2194,10 +2118,10 @@
         <v>0.5108057856559753</v>
       </c>
       <c r="J39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L39" t="n">
         <v>0.4298136532306671</v>
@@ -2206,14 +2130,12 @@
         <v>5</v>
       </c>
       <c r="N39" t="n">
-        <v>979</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>1080308</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>1080308</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
@@ -2223,7 +2145,7 @@
         <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="F40" t="n">
         <v>0.5545858144760132</v>
@@ -2241,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
         <v>0.1780493259429932</v>
@@ -2250,14 +2172,12 @@
         <v>5</v>
       </c>
       <c r="N40" t="n">
-        <v>459.5</v>
+        <v>230.25</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>1080401</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>1080401</v>
       </c>
       <c r="B41" t="n">
         <v>36.02989982411869</v>
@@ -2269,7 +2189,7 @@
         <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>5.1875</v>
+        <v>9.375</v>
       </c>
       <c r="F41" t="n">
         <v>0.8691114187240601</v>
@@ -2287,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="L41" t="n">
         <v>0.7408808469772339</v>
@@ -2296,14 +2216,12 @@
         <v>5</v>
       </c>
       <c r="N41" t="n">
-        <v>990</v>
+        <v>495.5</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>1080402</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>1080402</v>
       </c>
       <c r="B42" t="n">
         <v>65.83353966040735</v>
@@ -2315,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>6.75</v>
+        <v>12.5</v>
       </c>
       <c r="F42" t="n">
         <v>0.6240038871765137</v>
@@ -2333,7 +2251,7 @@
         <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>44.5</v>
+        <v>22.75</v>
       </c>
       <c r="L42" t="n">
         <v>0.7445811629295349</v>
@@ -2342,14 +2260,12 @@
         <v>5</v>
       </c>
       <c r="N42" t="n">
-        <v>998.5</v>
+        <v>499.75</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>1080403</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>1080403</v>
       </c>
       <c r="B43" t="n">
         <v>39.2106272254177</v>
@@ -2358,10 +2274,10 @@
         <v>0.7265245914459229</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>3.8125</v>
+        <v>6.625</v>
       </c>
       <c r="F43" t="n">
         <v>0.8349423408508301</v>
@@ -2376,10 +2292,10 @@
         <v>0.6727114915847778</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>24.5</v>
+        <v>12.75</v>
       </c>
       <c r="L43" t="n">
         <v>0.8228269219398499</v>
@@ -2388,14 +2304,12 @@
         <v>5</v>
       </c>
       <c r="N43" t="n">
-        <v>990.5</v>
+        <v>495.75</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>1080404</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>1080404</v>
       </c>
       <c r="B44" t="n">
         <v>45.50297069994574</v>
@@ -2404,10 +2318,10 @@
         <v>0.5942167043685913</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="F44" t="n">
         <v>0.7714336514472961</v>
@@ -2425,7 +2339,7 @@
         <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L44" t="n">
         <v>0.7768943905830383</v>
@@ -2434,14 +2348,12 @@
         <v>5</v>
       </c>
       <c r="N44" t="n">
-        <v>920.5</v>
+        <v>460.75</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>1080405</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>1080405</v>
       </c>
       <c r="B45" t="n">
         <v>49.28489635649713</v>
@@ -2450,10 +2362,10 @@
         <v>0.6561801433563232</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>4.4375</v>
+        <v>7.875</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
@@ -2466,10 +2378,10 @@
         <v>0.771435022354126</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>24.5</v>
+        <v>12.75</v>
       </c>
       <c r="L45" t="n">
         <v>0.7862091064453125</v>
@@ -2478,24 +2390,22 @@
         <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>810</v>
+        <v>405.5</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>1080406</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>1080406</v>
       </c>
       <c r="B46" t="n">
         <v>68.19655871405611</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F46" t="n">
         <v>0.8403061628341675</v>
@@ -2510,10 +2420,10 @@
         <v>0.7586362361907959</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>24.5</v>
+        <v>12.75</v>
       </c>
       <c r="L46" t="n">
         <v>0.8256916999816895</v>
@@ -2522,14 +2432,12 @@
         <v>5</v>
       </c>
       <c r="N46" t="n">
-        <v>893</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>1080407</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>1080407</v>
       </c>
       <c r="B47" t="n">
         <v>71.69804809564096</v>
@@ -2541,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>2.3125</v>
+        <v>3.625</v>
       </c>
       <c r="F47" t="n">
         <v>0.8007938861846924</v>
@@ -2559,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="K47" t="n">
-        <v>42.5</v>
+        <v>21.75</v>
       </c>
       <c r="L47" t="n">
         <v>0.8322996497154236</v>
@@ -2568,14 +2476,12 @@
         <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>887.5</v>
+        <v>444.25</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>1080408</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>1080408</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
@@ -2585,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>5.75</v>
+        <v>10.5</v>
       </c>
       <c r="F48" t="n">
         <v>0.79413902759552</v>
@@ -2603,7 +2509,7 @@
         <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L48" t="n">
         <v>0.8071174621582031</v>
@@ -2612,24 +2518,22 @@
         <v>5</v>
       </c>
       <c r="N48" t="n">
-        <v>736.5</v>
+        <v>368.75</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>1080409</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>1080409</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
         <v>0.630707859992981</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>2.6875</v>
+        <v>4.375</v>
       </c>
       <c r="F49" t="n">
         <v>0.69856196641922</v>
@@ -2647,7 +2551,7 @@
         <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="L49" t="n">
         <v>0.7552855610847473</v>
@@ -2656,14 +2560,12 @@
         <v>5</v>
       </c>
       <c r="N49" t="n">
-        <v>737.5</v>
+        <v>369.25</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>1080410</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>1080410</v>
       </c>
       <c r="B50" t="n">
         <v>140.8138102692548</v>
@@ -2675,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="E50" t="n">
-        <v>20.3125</v>
+        <v>39.625</v>
       </c>
       <c r="F50" t="n">
         <v>0.8281192779541016</v>
@@ -2693,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="K50" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L50" t="n">
         <v>0.8376776576042175</v>
@@ -2702,14 +2604,12 @@
         <v>5</v>
       </c>
       <c r="N50" t="n">
-        <v>867.5</v>
+        <v>434.25</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>1080411</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>1080411</v>
       </c>
       <c r="B51" t="n">
         <v>41.10657433529965</v>
@@ -2719,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1.6875</v>
+        <v>2.375</v>
       </c>
       <c r="F51" t="n">
         <v>0.8076744675636292</v>
@@ -2737,17 +2637,15 @@
         <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>1080412</t>
-        </is>
+      <c r="A52" s="1" t="n">
+        <v>1080412</v>
       </c>
       <c r="B52" t="n">
         <v>47.35322580645162</v>
@@ -2756,10 +2654,10 @@
         <v>0.5897393226623535</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="F52" t="n">
         <v>0.7401095628738403</v>
@@ -2774,10 +2672,10 @@
         <v>0.7324116826057434</v>
       </c>
       <c r="J52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K52" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="L52" t="n">
         <v>0.853125274181366</v>
@@ -2786,14 +2684,12 @@
         <v>5</v>
       </c>
       <c r="N52" t="n">
-        <v>854</v>
+        <v>427.5</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>1080413</t>
-        </is>
+      <c r="A53" s="1" t="n">
+        <v>1080413</v>
       </c>
       <c r="B53" t="n">
         <v>46.95132174936664</v>
@@ -2802,10 +2698,10 @@
         <v>0.8164691925048828</v>
       </c>
       <c r="D53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" t="n">
-        <v>8.8125</v>
+        <v>16.625</v>
       </c>
       <c r="F53" t="n">
         <v>0.7367845773696899</v>
@@ -2823,7 +2719,7 @@
         <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>32.5</v>
+        <v>16.75</v>
       </c>
       <c r="L53" t="n">
         <v>0.8409246802330017</v>
@@ -2832,14 +2728,12 @@
         <v>5</v>
       </c>
       <c r="N53" t="n">
-        <v>826.5</v>
+        <v>413.75</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>1080414</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>1080414</v>
       </c>
       <c r="B54" t="n">
         <v>18.66389658356417</v>
@@ -2851,13 +2745,13 @@
         <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>5.0625</v>
+        <v>9.125</v>
       </c>
       <c r="F54" t="n">
         <v>0.8692485094070435</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>4.472222222222222</v>
@@ -2866,10 +2760,10 @@
         <v>0.6059101819992065</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L54" t="n">
         <v>0.8097207546234131</v>
@@ -2878,14 +2772,12 @@
         <v>5</v>
       </c>
       <c r="N54" t="n">
-        <v>783</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>1080415</t>
-        </is>
+      <c r="A55" s="1" t="n">
+        <v>1080415</v>
       </c>
       <c r="B55" t="n">
         <v>42.17133201581028</v>
@@ -2897,7 +2789,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>5.3125</v>
+        <v>9.625</v>
       </c>
       <c r="F55" t="n">
         <v>0.8849895596504211</v>
@@ -2915,7 +2807,7 @@
         <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>45.5</v>
+        <v>23.25</v>
       </c>
       <c r="L55" t="n">
         <v>0.7801516056060791</v>
@@ -2924,14 +2816,12 @@
         <v>5</v>
       </c>
       <c r="N55" t="n">
-        <v>808.5</v>
+        <v>404.75</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>1080416</t>
-        </is>
+      <c r="A56" s="1" t="n">
+        <v>1080416</v>
       </c>
       <c r="B56" t="n">
         <v>72.76071506956416</v>
@@ -2940,10 +2830,10 @@
         <v>0.8036994934082031</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>4.3125</v>
+        <v>7.625</v>
       </c>
       <c r="F56" t="n">
         <v>0.5716754198074341</v>
@@ -2958,10 +2848,10 @@
         <v>0.8083363771438599</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="L56" t="n">
         <v>0.7946088314056396</v>
@@ -2970,14 +2860,12 @@
         <v>5</v>
       </c>
       <c r="N56" t="n">
-        <v>721</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>1080417</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>1080417</v>
       </c>
       <c r="B57" t="n">
         <v>56.92687747035573</v>
@@ -2989,7 +2877,7 @@
         <v>2</v>
       </c>
       <c r="E57" t="n">
-        <v>6.8125</v>
+        <v>12.625</v>
       </c>
       <c r="F57" t="n">
         <v>0.8595689535140991</v>
@@ -3007,7 +2895,7 @@
         <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>30.5</v>
+        <v>15.75</v>
       </c>
       <c r="L57" t="n">
         <v>0.7873062491416931</v>
@@ -3016,14 +2904,12 @@
         <v>5</v>
       </c>
       <c r="N57" t="n">
-        <v>846</v>
+        <v>423.5</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>1080418</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>1080418</v>
       </c>
       <c r="B58" t="n">
         <v>97.0433096205962</v>
@@ -3032,10 +2918,10 @@
         <v>0.6140484809875488</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>4.0625</v>
+        <v>7.125</v>
       </c>
       <c r="F58" t="n">
         <v>0.6744243502616882</v>
@@ -3050,10 +2936,10 @@
         <v>0.6811982393264771</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>19.5</v>
+        <v>10.25</v>
       </c>
       <c r="L58" t="n">
         <v>0.8528329133987427</v>
@@ -3062,24 +2948,22 @@
         <v>5</v>
       </c>
       <c r="N58" t="n">
-        <v>814</v>
+        <v>407.5</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>1080419</t>
-        </is>
+      <c r="A59" s="1" t="n">
+        <v>1080419</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
         <v>0.8101041316986084</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59" t="n">
-        <v>8.75</v>
+        <v>16.5</v>
       </c>
       <c r="F59" t="n">
         <v>0.7522904872894287</v>
@@ -3097,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>31.5</v>
+        <v>16.25</v>
       </c>
       <c r="L59" t="n">
         <v>0.8447270393371582</v>
@@ -3106,14 +2990,12 @@
         <v>5</v>
       </c>
       <c r="N59" t="n">
-        <v>916</v>
+        <v>458.5</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>1080420</t>
-        </is>
+      <c r="A60" s="1" t="n">
+        <v>1080420</v>
       </c>
       <c r="B60" t="n">
         <v>31.68633107360931</v>
@@ -3122,10 +3004,10 @@
         <v>0.7523071765899658</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="F60" t="n">
         <v>0.8975330591201782</v>
@@ -3143,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="K60" t="n">
-        <v>30.5</v>
+        <v>15.75</v>
       </c>
       <c r="L60" t="n">
         <v>0.7571569681167603</v>
@@ -3152,14 +3034,12 @@
         <v>5</v>
       </c>
       <c r="N60" t="n">
-        <v>865.5</v>
+        <v>433.25</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>1080422</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>1080422</v>
       </c>
       <c r="B61" t="n">
         <v>52.48405201916496</v>
@@ -3168,10 +3048,10 @@
         <v>0.6237326264381409</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>2.8125</v>
+        <v>4.625</v>
       </c>
       <c r="F61" t="n">
         <v>0.849042534828186</v>
@@ -3186,10 +3066,10 @@
         <v>0.6740673780441284</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="L61" t="n">
         <v>0.8107616901397705</v>
@@ -3198,14 +3078,12 @@
         <v>5</v>
       </c>
       <c r="N61" t="n">
-        <v>969.5</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>1080426</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>1080426</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
@@ -3215,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>5.25</v>
+        <v>9.5</v>
       </c>
       <c r="F62" t="n">
         <v>0.9558784365653992</v>
@@ -3234,10 +3112,8 @@
       <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>1090101</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>1090101</v>
       </c>
       <c r="B63" t="n">
         <v>31.38511963290724</v>
@@ -3246,10 +3122,10 @@
         <v>0.3990725576877594</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="F63" t="n">
         <v>0.7637692093849182</v>
@@ -3264,10 +3140,10 @@
         <v>0.64626544713974</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="L63" t="n">
         <v>0.7233735322952271</v>
@@ -3276,14 +3152,12 @@
         <v>5</v>
       </c>
       <c r="N63" t="n">
-        <v>979</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>1090102</t>
-        </is>
+      <c r="A64" s="1" t="n">
+        <v>1090102</v>
       </c>
       <c r="B64" t="n">
         <v>45.31165311653117</v>
@@ -3295,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>4.5625</v>
+        <v>8.125</v>
       </c>
       <c r="F64" t="n">
         <v>0.7626586556434631</v>
@@ -3313,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="L64" t="n">
         <v>0.7505477666854858</v>
@@ -3322,14 +3196,12 @@
         <v>5</v>
       </c>
       <c r="N64" t="n">
-        <v>1066</v>
+        <v>533.5</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>1090103</t>
-        </is>
+      <c r="A65" s="1" t="n">
+        <v>1090103</v>
       </c>
       <c r="B65" t="n">
         <v>38.3033929940394</v>
@@ -3341,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>4.8125</v>
+        <v>8.625</v>
       </c>
       <c r="F65" t="n">
         <v>0.8677858114242554</v>
@@ -3359,7 +3231,7 @@
         <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>35.5</v>
+        <v>18.25</v>
       </c>
       <c r="L65" t="n">
         <v>0.4230709373950958</v>
@@ -3368,14 +3240,12 @@
         <v>5</v>
       </c>
       <c r="N65" t="n">
-        <v>571.5</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>1090104</t>
-        </is>
+      <c r="A66" s="1" t="n">
+        <v>1090104</v>
       </c>
       <c r="B66" t="n">
         <v>38.56605144315728</v>
@@ -3387,7 +3257,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="n">
-        <v>5.6875</v>
+        <v>10.375</v>
       </c>
       <c r="F66" t="n">
         <v>0.8333410024642944</v>
@@ -3405,7 +3275,7 @@
         <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>60.5</v>
+        <v>30.75</v>
       </c>
       <c r="L66" t="n">
         <v>0.5204522013664246</v>
@@ -3414,14 +3284,12 @@
         <v>5</v>
       </c>
       <c r="N66" t="n">
-        <v>1286.5</v>
+        <v>643.75</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>1090105</t>
-        </is>
+      <c r="A67" s="1" t="n">
+        <v>1090105</v>
       </c>
       <c r="B67" t="n">
         <v>9.449135802469137</v>
@@ -3430,10 +3298,10 @@
         <v>0.4353178739547729</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>4.125</v>
+        <v>7.25</v>
       </c>
       <c r="F67" t="n">
         <v>0.8049399852752686</v>
@@ -3451,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>18.5</v>
+        <v>9.75</v>
       </c>
       <c r="L67" t="n">
         <v>0.7485059499740601</v>
@@ -3460,14 +3328,12 @@
         <v>5</v>
       </c>
       <c r="N67" t="n">
-        <v>901.5</v>
+        <v>451.25</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>1090106</t>
-        </is>
+      <c r="A68" s="1" t="n">
+        <v>1090106</v>
       </c>
       <c r="B68" t="n">
         <v>62.53334970530452</v>
@@ -3479,7 +3345,7 @@
         <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>5.8125</v>
+        <v>10.625</v>
       </c>
       <c r="F68" t="n">
         <v>0.4462863504886627</v>
@@ -3494,10 +3360,10 @@
         <v>0.6014138460159302</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
-        <v>20.5</v>
+        <v>10.75</v>
       </c>
       <c r="L68" t="n">
         <v>0.7206407189369202</v>
@@ -3506,14 +3372,12 @@
         <v>5</v>
       </c>
       <c r="N68" t="n">
-        <v>985</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>1090107</t>
-        </is>
+      <c r="A69" s="1" t="n">
+        <v>1090107</v>
       </c>
       <c r="B69" t="n">
         <v>17.71428571428572</v>
@@ -3522,10 +3386,10 @@
         <v>0.8108614683151245</v>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>8.375</v>
+        <v>15.75</v>
       </c>
       <c r="F69" t="n">
         <v>0.8469384908676147</v>
@@ -3543,7 +3407,7 @@
         <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>30.5</v>
+        <v>15.75</v>
       </c>
       <c r="L69" t="n">
         <v>0.7646991014480591</v>
@@ -3552,14 +3416,12 @@
         <v>5</v>
       </c>
       <c r="N69" t="n">
-        <v>907.5</v>
+        <v>454.25</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>1090109</t>
-        </is>
+      <c r="A70" s="1" t="n">
+        <v>1090109</v>
       </c>
       <c r="B70" t="n">
         <v>76.01861338797814</v>
@@ -3568,10 +3430,10 @@
         <v>0.5363293886184692</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F70" t="n">
         <v>0.8536738157272339</v>
@@ -3589,7 +3451,7 @@
         <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>29.5</v>
+        <v>15.25</v>
       </c>
       <c r="L70" t="n">
         <v>0.7372584342956543</v>
@@ -3598,14 +3460,12 @@
         <v>5</v>
       </c>
       <c r="N70" t="n">
-        <v>867</v>
+        <v>434</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>1090110</t>
-        </is>
+      <c r="A71" s="1" t="n">
+        <v>1090110</v>
       </c>
       <c r="B71" t="n">
         <v>56.87458727709637</v>
@@ -3614,10 +3474,10 @@
         <v>0.2370181977748871</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>3.3125</v>
+        <v>5.625</v>
       </c>
       <c r="F71" t="n">
         <v>0.7914314270019531</v>
@@ -3635,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>30.5</v>
+        <v>15.75</v>
       </c>
       <c r="L71" t="n">
         <v>0.8059864640235901</v>
@@ -3644,14 +3504,12 @@
         <v>5</v>
       </c>
       <c r="N71" t="n">
-        <v>928.5</v>
+        <v>464.75</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>1090111</t>
-        </is>
+      <c r="A72" s="1" t="n">
+        <v>1090111</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
@@ -3661,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>4.875</v>
+        <v>8.75</v>
       </c>
       <c r="F72" t="n">
         <v>0.3813205361366272</v>
@@ -3679,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>53.5</v>
+        <v>27.25</v>
       </c>
       <c r="L72" t="n">
         <v>0.7521629929542542</v>
@@ -3688,14 +3546,12 @@
         <v>5</v>
       </c>
       <c r="N72" t="n">
-        <v>915</v>
+        <v>458</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>1090112</t>
-        </is>
+      <c r="A73" s="1" t="n">
+        <v>1090112</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
@@ -3705,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>5.5625</v>
+        <v>10.125</v>
       </c>
       <c r="F73" t="n">
         <v>0.8375255465507507</v>
@@ -3723,7 +3579,7 @@
         <v>3</v>
       </c>
       <c r="K73" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="L73" t="n">
         <v>0.817619800567627</v>
@@ -3732,14 +3588,12 @@
         <v>5</v>
       </c>
       <c r="N73" t="n">
-        <v>989</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>1090113</t>
-        </is>
+      <c r="A74" s="1" t="n">
+        <v>1090113</v>
       </c>
       <c r="B74" t="n">
         <v>41.50509248686915</v>
@@ -3748,10 +3602,10 @@
         <v>0.6097773313522339</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>3.6875</v>
+        <v>6.375</v>
       </c>
       <c r="F74" t="n">
         <v>0.5148425102233887</v>
@@ -3769,7 +3623,7 @@
         <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>35.5</v>
+        <v>18.25</v>
       </c>
       <c r="L74" t="n">
         <v>0.8077247738838196</v>
@@ -3778,14 +3632,12 @@
         <v>5</v>
       </c>
       <c r="N74" t="n">
-        <v>869</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>1090114</t>
-        </is>
+      <c r="A75" s="1" t="n">
+        <v>1090114</v>
       </c>
       <c r="B75" t="n">
         <v>57.41784326731735</v>
@@ -3794,16 +3646,16 @@
         <v>0.5130618810653687</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F75" t="n">
         <v>0.8219517469406128</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>4.027777777777778</v>
@@ -3815,7 +3667,7 @@
         <v>3</v>
       </c>
       <c r="K75" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="L75" t="n">
         <v>0.8208680152893066</v>
@@ -3824,14 +3676,12 @@
         <v>5</v>
       </c>
       <c r="N75" t="n">
-        <v>814.5</v>
+        <v>407.75</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>1090115</t>
-        </is>
+      <c r="A76" s="1" t="n">
+        <v>1090115</v>
       </c>
       <c r="B76" t="n">
         <v>57.24966884213195</v>
@@ -3843,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>5.9375</v>
+        <v>10.875</v>
       </c>
       <c r="F76" t="n">
         <v>0.7301994562149048</v>
@@ -3861,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="K76" t="n">
-        <v>44.5</v>
+        <v>22.75</v>
       </c>
       <c r="L76" t="n">
         <v>0.7979096174240112</v>
@@ -3870,14 +3720,12 @@
         <v>5</v>
       </c>
       <c r="N76" t="n">
-        <v>949.5</v>
+        <v>475.25</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>1100101</t>
-        </is>
+      <c r="A77" s="1" t="n">
+        <v>1100101</v>
       </c>
       <c r="B77" t="n">
         <v>73.51234279908348</v>
@@ -3886,10 +3734,10 @@
         <v>0.6302219033241272</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>3.6875</v>
+        <v>6.375</v>
       </c>
       <c r="F77" t="n">
         <v>0.5890752077102661</v>
@@ -3907,7 +3755,7 @@
         <v>3</v>
       </c>
       <c r="K77" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="L77" t="n">
         <v>0.7639915943145752</v>
@@ -3916,14 +3764,12 @@
         <v>5</v>
       </c>
       <c r="N77" t="n">
-        <v>879</v>
+        <v>440</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>1100102</t>
-        </is>
+      <c r="A78" s="1" t="n">
+        <v>1100102</v>
       </c>
       <c r="B78" t="n">
         <v>57.37306789357663</v>
@@ -3935,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1.875</v>
+        <v>2.75</v>
       </c>
       <c r="F78" t="n">
         <v>0.8836448192596436</v>
@@ -3953,7 +3799,7 @@
         <v>3</v>
       </c>
       <c r="K78" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="L78" t="n">
         <v>0.7868136167526245</v>
@@ -3962,30 +3808,28 @@
         <v>5</v>
       </c>
       <c r="N78" t="n">
-        <v>1009.5</v>
+        <v>505.25</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>1100103</t>
-        </is>
+      <c r="A79" s="1" t="n">
+        <v>1100103</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
         <v>0.7022662758827209</v>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>7.6875</v>
+        <v>14.375</v>
       </c>
       <c r="F79" t="n">
         <v>0.663541316986084</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>4.388888888888889</v>
@@ -3994,10 +3838,10 @@
         <v>0.5689557194709778</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>24</v>
+        <v>12.5</v>
       </c>
       <c r="L79" t="n">
         <v>0.7875045537948608</v>
@@ -4006,14 +3850,12 @@
         <v>5</v>
       </c>
       <c r="N79" t="n">
-        <v>931.5</v>
+        <v>466.25</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>1100104</t>
-        </is>
+      <c r="A80" s="1" t="n">
+        <v>1100104</v>
       </c>
       <c r="B80" t="n">
         <v>36.70452204367532</v>
@@ -4022,10 +3864,10 @@
         <v>0.4602527022361755</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F80" t="n">
         <v>0.8767517805099487</v>
@@ -4043,7 +3885,7 @@
         <v>3</v>
       </c>
       <c r="K80" t="n">
-        <v>28</v>
+        <v>14.5</v>
       </c>
       <c r="L80" t="n">
         <v>0.7800881862640381</v>
@@ -4052,14 +3894,12 @@
         <v>5</v>
       </c>
       <c r="N80" t="n">
-        <v>885.5</v>
+        <v>443.25</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>1100105</t>
-        </is>
+      <c r="A81" s="1" t="n">
+        <v>1100105</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
@@ -4067,7 +3907,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>2.125</v>
+        <v>3.25</v>
       </c>
       <c r="F81" t="n">
         <v>0.9307425022125244</v>
@@ -4085,7 +3925,7 @@
         <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="L81" t="n">
         <v>0.7768787145614624</v>
@@ -4094,14 +3934,12 @@
         <v>5</v>
       </c>
       <c r="N81" t="n">
-        <v>885</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>1100106</t>
-        </is>
+      <c r="A82" s="1" t="n">
+        <v>1100106</v>
       </c>
       <c r="B82" t="n">
         <v>134.7178567834138</v>
@@ -4110,10 +3948,10 @@
         <v>0.6559967994689941</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>2.8125</v>
+        <v>4.625</v>
       </c>
       <c r="F82" t="n">
         <v>0.9140844345092773</v>
@@ -4131,7 +3969,7 @@
         <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>42</v>
+        <v>21.5</v>
       </c>
       <c r="L82" t="n">
         <v>0.8079676628112793</v>
@@ -4140,14 +3978,12 @@
         <v>5</v>
       </c>
       <c r="N82" t="n">
-        <v>901.5</v>
+        <v>451.25</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>1100107</t>
-        </is>
+      <c r="A83" s="1" t="n">
+        <v>1100107</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
@@ -4157,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="F83" t="n">
         <v>0.6613198518753052</v>
@@ -4175,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="K83" t="n">
-        <v>40.5</v>
+        <v>20.75</v>
       </c>
       <c r="L83" t="n">
         <v>0.9093989133834839</v>
@@ -4184,14 +4020,12 @@
         <v>5</v>
       </c>
       <c r="N83" t="n">
-        <v>968.5</v>
+        <v>484.75</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>1100108</t>
-        </is>
+      <c r="A84" s="1" t="n">
+        <v>1100108</v>
       </c>
       <c r="B84" t="n">
         <v>98.1152564031898</v>
@@ -4200,10 +4034,10 @@
         <v>0.4806787371635437</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" t="n">
-        <v>3.3125</v>
+        <v>5.625</v>
       </c>
       <c r="F84" t="n">
         <v>0.8048185110092163</v>
@@ -4221,7 +4055,7 @@
         <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>59.5</v>
+        <v>30.25</v>
       </c>
       <c r="L84" t="n">
         <v>0.8572324514389038</v>
@@ -4230,30 +4064,28 @@
         <v>5</v>
       </c>
       <c r="N84" t="n">
-        <v>973.5</v>
+        <v>487.25</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>1100109</t>
-        </is>
+      <c r="A85" s="1" t="n">
+        <v>1100109</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
         <v>0.6578512191772461</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
-        <v>4.4375</v>
+        <v>7.875</v>
       </c>
       <c r="F85" t="n">
         <v>0.8264926075935364</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>4.25</v>
@@ -4265,7 +4097,7 @@
         <v>3</v>
       </c>
       <c r="K85" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="L85" t="n">
         <v>0.798125147819519</v>
@@ -4274,14 +4106,12 @@
         <v>5</v>
       </c>
       <c r="N85" t="n">
-        <v>908.5</v>
+        <v>454.75</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>1100110</t>
-        </is>
+      <c r="A86" s="1" t="n">
+        <v>1100110</v>
       </c>
       <c r="B86" t="n">
         <v>62.52173554009417</v>
@@ -4290,10 +4120,10 @@
         <v>0.6340843439102173</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>3.125</v>
+        <v>5.25</v>
       </c>
       <c r="F86" t="n">
         <v>0.6587166786193848</v>
@@ -4311,7 +4141,7 @@
         <v>3</v>
       </c>
       <c r="K86" t="n">
-        <v>34.5</v>
+        <v>17.75</v>
       </c>
       <c r="L86" t="n">
         <v>0.7960072159767151</v>
@@ -4320,14 +4150,12 @@
         <v>5</v>
       </c>
       <c r="N86" t="n">
-        <v>919</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>1100111</t>
-        </is>
+      <c r="A87" s="1" t="n">
+        <v>1100111</v>
       </c>
       <c r="B87" t="n">
         <v>75.6728332488596</v>
@@ -4336,16 +4164,16 @@
         <v>0.7002801895141602</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>3.9375</v>
+        <v>6.875</v>
       </c>
       <c r="F87" t="n">
         <v>0.7978704571723938</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H87" t="n">
         <v>4.361111111111111</v>
@@ -4357,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="L87" t="n">
         <v>0.8059327602386475</v>
@@ -4366,14 +4194,12 @@
         <v>5</v>
       </c>
       <c r="N87" t="n">
-        <v>999.5</v>
+        <v>500.25</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>1100112</t>
-        </is>
+      <c r="A88" s="1" t="n">
+        <v>1100112</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
@@ -4383,7 +4209,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="n">
-        <v>5.4375</v>
+        <v>9.875</v>
       </c>
       <c r="F88" t="n">
         <v>0.4706100821495056</v>
@@ -4401,7 +4227,7 @@
         <v>3</v>
       </c>
       <c r="K88" t="n">
-        <v>59.5</v>
+        <v>30.25</v>
       </c>
       <c r="L88" t="n">
         <v>0.8179596066474915</v>
@@ -4410,14 +4236,12 @@
         <v>5</v>
       </c>
       <c r="N88" t="n">
-        <v>1009</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>1100114</t>
-        </is>
+      <c r="A89" s="1" t="n">
+        <v>1100114</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
@@ -4427,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>7.4375</v>
+        <v>13.875</v>
       </c>
       <c r="F89" t="n">
         <v>0.5940780639648438</v>
@@ -4445,7 +4269,7 @@
         <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>42.5</v>
+        <v>21.75</v>
       </c>
       <c r="L89" t="n">
         <v>0.7089740037918091</v>
@@ -4454,24 +4278,22 @@
         <v>5</v>
       </c>
       <c r="N89" t="n">
-        <v>986</v>
+        <v>493.5</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>1100115</t>
-        </is>
+      <c r="A90" s="1" t="n">
+        <v>1100115</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
         <v>0.5003719329833984</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>4.4375</v>
+        <v>7.875</v>
       </c>
       <c r="F90" t="n">
         <v>0.8364017009735107</v>
@@ -4489,17 +4311,15 @@
         <v>3</v>
       </c>
       <c r="K90" t="n">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>1100117</t>
-        </is>
+      <c r="A91" s="1" t="n">
+        <v>1100117</v>
       </c>
       <c r="B91" t="n">
         <v>49.87765466297322</v>
@@ -4508,10 +4328,10 @@
         <v>0.4732171595096588</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>8.5625</v>
+        <v>16.125</v>
       </c>
       <c r="F91" t="n">
         <v>0.693861722946167</v>
@@ -4529,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="K91" t="n">
-        <v>55.5</v>
+        <v>28.25</v>
       </c>
       <c r="L91" t="n">
         <v>0.7978891134262085</v>
@@ -4538,14 +4358,12 @@
         <v>5</v>
       </c>
       <c r="N91" t="n">
-        <v>928.5</v>
+        <v>464.75</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>1100118</t>
-        </is>
+      <c r="A92" s="1" t="n">
+        <v>1100118</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
@@ -4555,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>2.1875</v>
+        <v>3.375</v>
       </c>
       <c r="F92" t="n">
         <v>0.4211498200893402</v>
@@ -4573,7 +4391,7 @@
         <v>3</v>
       </c>
       <c r="K92" t="n">
-        <v>32.5</v>
+        <v>16.75</v>
       </c>
       <c r="L92" t="n">
         <v>0.8833005428314209</v>
@@ -4582,24 +4400,22 @@
         <v>5</v>
       </c>
       <c r="N92" t="n">
-        <v>891.5</v>
+        <v>446.25</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>1100119</t>
-        </is>
+      <c r="A93" s="1" t="n">
+        <v>1100119</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
         <v>0.6912092566490173</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>2.625</v>
+        <v>4.25</v>
       </c>
       <c r="F93" t="n">
         <v>0.6783744096755981</v>
@@ -4617,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="K93" t="n">
-        <v>44.5</v>
+        <v>22.75</v>
       </c>
       <c r="L93" t="n">
         <v>0.8305410146713257</v>
@@ -4626,14 +4442,12 @@
         <v>5</v>
       </c>
       <c r="N93" t="n">
-        <v>880</v>
+        <v>440.5</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>1110133</t>
-        </is>
+      <c r="A94" s="1" t="n">
+        <v>1110133</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
@@ -4643,13 +4457,13 @@
         <v>2</v>
       </c>
       <c r="E94" t="n">
-        <v>5.9375</v>
+        <v>10.875</v>
       </c>
       <c r="F94" t="n">
         <v>0.4569532871246338</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="n">
         <v>4.5</v>
@@ -4662,20 +4476,18 @@
       <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>1110134</t>
-        </is>
+      <c r="A95" s="1" t="n">
+        <v>1110134</v>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
         <v>0.8683230876922607</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95" t="n">
-        <v>8.0625</v>
+        <v>15.125</v>
       </c>
       <c r="F95" t="n">
         <v>0.962573230266571</v>
@@ -4694,10 +4506,8 @@
       <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>1110135</t>
-        </is>
+      <c r="A96" s="1" t="n">
+        <v>1110135</v>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
@@ -4707,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="E96" t="n">
-        <v>4.5625</v>
+        <v>8.125</v>
       </c>
       <c r="F96" t="n">
         <v>0.8576165437698364</v>
@@ -4726,26 +4536,24 @@
       <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>1110136</t>
-        </is>
+      <c r="A97" s="1" t="n">
+        <v>1110136</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
         <v>0.7078534364700317</v>
       </c>
       <c r="D97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97" t="n">
-        <v>8.0625</v>
+        <v>15.125</v>
       </c>
       <c r="F97" t="n">
         <v>0.8192610740661621</v>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="n">
         <v>4.305555555555555</v>
@@ -4758,20 +4566,18 @@
       <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>1110137</t>
-        </is>
+      <c r="A98" s="1" t="n">
+        <v>1110137</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
         <v>0.6759837865829468</v>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98" t="n">
-        <v>9.6875</v>
+        <v>18.375</v>
       </c>
       <c r="F98" t="n">
         <v>0.48934406042099</v>
@@ -4790,10 +4596,8 @@
       <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>1110138</t>
-        </is>
+      <c r="A99" s="1" t="n">
+        <v>1110138</v>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
@@ -4803,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="E99" t="n">
-        <v>4.8125</v>
+        <v>8.625</v>
       </c>
       <c r="F99" t="n">
         <v>0.9251835942268372</v>
@@ -4822,20 +4626,18 @@
       <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>1110139</t>
-        </is>
+      <c r="A100" s="1" t="n">
+        <v>1110139</v>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
         <v>0.8012504577636719</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E100" t="n">
-        <v>8.8125</v>
+        <v>16.625</v>
       </c>
       <c r="F100" t="n">
         <v>0.894376277923584</v>
@@ -4854,20 +4656,18 @@
       <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>1110140</t>
-        </is>
+      <c r="A101" s="1" t="n">
+        <v>1110140</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
         <v>0.7709678411483765</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F101" t="n">
         <v>0.8639695644378662</v>
@@ -4886,10 +4686,8 @@
       <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>1110141</t>
-        </is>
+      <c r="A102" s="1" t="n">
+        <v>1110141</v>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
@@ -4899,7 +4697,7 @@
         <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>5.0625</v>
+        <v>9.125</v>
       </c>
       <c r="F102" t="n">
         <v>0.8176989555358887</v>
@@ -4918,20 +4716,18 @@
       <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>1110142</t>
-        </is>
+      <c r="A103" s="1" t="n">
+        <v>1110142</v>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
         <v>0.5342023372650146</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103" t="n">
-        <v>3.0625</v>
+        <v>5.125</v>
       </c>
       <c r="F103" t="n">
         <v>0.8821453452110291</v>
@@ -4950,20 +4746,18 @@
       <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="inlineStr">
-        <is>
-          <t>1110143</t>
-        </is>
+      <c r="A104" s="1" t="n">
+        <v>1110143</v>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
         <v>0.3997960388660431</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" t="n">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="F104" t="n">
         <v>0.7772665023803711</v>
@@ -4982,10 +4776,8 @@
       <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
-        <is>
-          <t>1110144</t>
-        </is>
+      <c r="A105" s="1" t="n">
+        <v>1110144</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
@@ -4995,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>4.625</v>
+        <v>8.25</v>
       </c>
       <c r="F105" t="n">
         <v>0.7982349395751953</v>
@@ -5014,10 +4806,8 @@
       <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>1110145</t>
-        </is>
+      <c r="A106" s="1" t="n">
+        <v>1110145</v>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
@@ -5027,7 +4817,7 @@
         <v>2</v>
       </c>
       <c r="E106" t="n">
-        <v>4.875</v>
+        <v>8.75</v>
       </c>
       <c r="F106" t="n">
         <v>0.7639610767364502</v>
@@ -5046,10 +4836,8 @@
       <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="inlineStr">
-        <is>
-          <t>1110146</t>
-        </is>
+      <c r="A107" s="1" t="n">
+        <v>1110146</v>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
@@ -5059,7 +4847,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="n">
-        <v>5.75</v>
+        <v>10.5</v>
       </c>
       <c r="F107" t="n">
         <v>0.8626648187637329</v>
@@ -5078,10 +4866,8 @@
       <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>1110147</t>
-        </is>
+      <c r="A108" s="1" t="n">
+        <v>1110147</v>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
@@ -5091,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>5.1875</v>
+        <v>9.375</v>
       </c>
       <c r="F108" t="n">
         <v>0.7937959432601929</v>
@@ -5110,20 +4896,18 @@
       <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="inlineStr">
-        <is>
-          <t>1110148</t>
-        </is>
+      <c r="A109" s="1" t="n">
+        <v>1110148</v>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
         <v>0.5659373998641968</v>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E109" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F109" t="n">
         <v>0.790616512298584</v>
@@ -5142,20 +4926,18 @@
       <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="inlineStr">
-        <is>
-          <t>1110149</t>
-        </is>
+      <c r="A110" s="1" t="n">
+        <v>1110149</v>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
         <v>0.6038139462471008</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="F110" t="n">
         <v>0.7235755920410156</v>
@@ -5174,10 +4956,8 @@
       <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="inlineStr">
-        <is>
-          <t>1110150</t>
-        </is>
+      <c r="A111" s="1" t="n">
+        <v>1110150</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
@@ -5187,7 +4967,7 @@
         <v>2</v>
       </c>
       <c r="E111" t="n">
-        <v>5.625</v>
+        <v>10.25</v>
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="n">
@@ -5204,20 +4984,18 @@
       <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="inlineStr">
-        <is>
-          <t>1110151</t>
-        </is>
+      <c r="A112" s="1" t="n">
+        <v>1110151</v>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
         <v>0.8775882720947266</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E112" t="n">
-        <v>10.1875</v>
+        <v>19.375</v>
       </c>
       <c r="F112" t="n">
         <v>0.8772934675216675</v>
@@ -5236,10 +5014,8 @@
       <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="inlineStr">
-        <is>
-          <t>1110152</t>
-        </is>
+      <c r="A113" s="1" t="n">
+        <v>1110152</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
@@ -5249,7 +5025,7 @@
         <v>2</v>
       </c>
       <c r="E113" t="n">
-        <v>6.8125</v>
+        <v>12.625</v>
       </c>
       <c r="F113" t="n">
         <v>0.7763075828552246</v>
@@ -5268,20 +5044,18 @@
       <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="inlineStr">
-        <is>
-          <t>1110153</t>
-        </is>
+      <c r="A114" s="1" t="n">
+        <v>1110153</v>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
         <v>0.7332712411880493</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E114" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="F114" t="n">
         <v>0.7218976616859436</v>
@@ -5300,20 +5074,18 @@
       <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="inlineStr">
-        <is>
-          <t>1110154</t>
-        </is>
+      <c r="A115" s="1" t="n">
+        <v>1110154</v>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
         <v>0.5609755516052246</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F115" t="n">
         <v>0.6607449054718018</v>
@@ -5332,10 +5104,8 @@
       <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="inlineStr">
-        <is>
-          <t>1110156</t>
-        </is>
+      <c r="A116" s="1" t="n">
+        <v>1110156</v>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
@@ -5345,7 +5115,7 @@
         <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>4.625</v>
+        <v>8.25</v>
       </c>
       <c r="F116" t="n">
         <v>0.8719115257263184</v>
@@ -5364,10 +5134,8 @@
       <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
-        <is>
-          <t>1110158</t>
-        </is>
+      <c r="A117" s="1" t="n">
+        <v>1110158</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
@@ -5377,13 +5145,13 @@
         <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="F117" t="n">
         <v>0.8993455767631531</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" t="n">
         <v>15.13888888888889</v>
@@ -5396,20 +5164,18 @@
       <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
-        <is>
-          <t>1110159</t>
-        </is>
+      <c r="A118" s="1" t="n">
+        <v>1110159</v>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
         <v>0.3581017255783081</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>4.0625</v>
+        <v>7.125</v>
       </c>
       <c r="F118" t="n">
         <v>0.6251416802406311</v>
@@ -5428,20 +5194,18 @@
       <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="inlineStr">
-        <is>
-          <t>1110160</t>
-        </is>
+      <c r="A119" s="1" t="n">
+        <v>1110160</v>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
         <v>0.5575861930847168</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F119" t="n">
         <v>0.5927873849868774</v>
@@ -5460,10 +5224,8 @@
       <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>1110201</t>
-        </is>
+      <c r="A120" s="1" t="n">
+        <v>1110201</v>
       </c>
       <c r="B120" t="n">
         <v>48.09704211229946</v>
@@ -5475,13 +5237,13 @@
         <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>1.8125</v>
+        <v>2.625</v>
       </c>
       <c r="F120" t="n">
         <v>0.9320868253707886</v>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H120" t="n">
         <v>14.25</v>
@@ -5490,10 +5252,10 @@
         <v>0.5754612684249878</v>
       </c>
       <c r="J120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K120" t="n">
-        <v>23.5</v>
+        <v>12.25</v>
       </c>
       <c r="L120" t="n">
         <v>0.736781120300293</v>
@@ -5502,14 +5264,12 @@
         <v>5</v>
       </c>
       <c r="N120" t="n">
-        <v>1040.5</v>
+        <v>520.75</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>1110202</t>
-        </is>
+      <c r="A121" s="1" t="n">
+        <v>1110202</v>
       </c>
       <c r="B121" t="n">
         <v>45.8292263173519</v>
@@ -5521,7 +5281,7 @@
         <v>2</v>
       </c>
       <c r="E121" t="n">
-        <v>6.75</v>
+        <v>12.5</v>
       </c>
       <c r="F121" t="n">
         <v>0.8666946887969971</v>
@@ -5539,7 +5299,7 @@
         <v>3</v>
       </c>
       <c r="K121" t="n">
-        <v>45.5</v>
+        <v>23.25</v>
       </c>
       <c r="L121" t="n">
         <v>0.7381026744842529</v>
@@ -5548,14 +5308,12 @@
         <v>5</v>
       </c>
       <c r="N121" t="n">
-        <v>1064.5</v>
+        <v>532.75</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>1110203</t>
-        </is>
+      <c r="A122" s="1" t="n">
+        <v>1110203</v>
       </c>
       <c r="B122" t="n">
         <v>86.08627450980393</v>
@@ -5564,10 +5322,10 @@
         <v>0.8459526300430298</v>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E122" t="n">
-        <v>10.3125</v>
+        <v>19.625</v>
       </c>
       <c r="F122" t="n">
         <v>0.7036791443824768</v>
@@ -5585,7 +5343,7 @@
         <v>3</v>
       </c>
       <c r="K122" t="n">
-        <v>67.5</v>
+        <v>34.25</v>
       </c>
       <c r="L122" t="n">
         <v>0.79527747631073</v>
@@ -5594,14 +5352,12 @@
         <v>5</v>
       </c>
       <c r="N122" t="n">
-        <v>1085.5</v>
+        <v>543.25</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>1110204</t>
-        </is>
+      <c r="A123" s="1" t="n">
+        <v>1110204</v>
       </c>
       <c r="B123" t="n">
         <v>44.3869610935857</v>
@@ -5613,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>5.625</v>
+        <v>10.25</v>
       </c>
       <c r="F123" t="n">
         <v>0.865212619304657</v>
@@ -5631,7 +5387,7 @@
         <v>3</v>
       </c>
       <c r="K123" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="L123" t="n">
         <v>0.7366674542427063</v>
@@ -5640,28 +5396,26 @@
         <v>5</v>
       </c>
       <c r="N123" t="n">
-        <v>1063.5</v>
+        <v>532.25</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>1110205</t>
-        </is>
+      <c r="A124" s="1" t="n">
+        <v>1110205</v>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124" t="n">
-        <v>3.0625</v>
+        <v>5.125</v>
       </c>
       <c r="F124" t="n">
         <v>0.8623640537261963</v>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H124" t="n">
         <v>16.47222222222222</v>
@@ -5673,7 +5427,7 @@
         <v>3</v>
       </c>
       <c r="K124" t="n">
-        <v>50</v>
+        <v>25.5</v>
       </c>
       <c r="L124" t="n">
         <v>0.7795952558517456</v>
@@ -5682,14 +5436,12 @@
         <v>5</v>
       </c>
       <c r="N124" t="n">
-        <v>1024</v>
+        <v>512.5</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>1110206</t>
-        </is>
+      <c r="A125" s="1" t="n">
+        <v>1110206</v>
       </c>
       <c r="B125" t="n">
         <v>68.50127799183612</v>
@@ -5699,13 +5451,13 @@
         <v>1</v>
       </c>
       <c r="E125" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="F125" t="n">
         <v>0.5619850158691406</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H125" t="n">
         <v>4.027777777777778</v>
@@ -5717,7 +5469,7 @@
         <v>3</v>
       </c>
       <c r="K125" t="n">
-        <v>60</v>
+        <v>30.5</v>
       </c>
       <c r="L125" t="n">
         <v>0.7522549629211426</v>
@@ -5726,14 +5478,12 @@
         <v>5</v>
       </c>
       <c r="N125" t="n">
-        <v>1053</v>
+        <v>527</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>1110207</t>
-        </is>
+      <c r="A126" s="1" t="n">
+        <v>1110207</v>
       </c>
       <c r="B126" t="n">
         <v>52.00564136348574</v>
@@ -5745,7 +5495,7 @@
         <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>7.1875</v>
+        <v>13.375</v>
       </c>
       <c r="F126" t="n">
         <v>0.7973366975784302</v>
@@ -5763,7 +5513,7 @@
         <v>3</v>
       </c>
       <c r="K126" t="n">
-        <v>45.5</v>
+        <v>23.25</v>
       </c>
       <c r="L126" t="n">
         <v>0.7672242522239685</v>
@@ -5772,14 +5522,12 @@
         <v>5</v>
       </c>
       <c r="N126" t="n">
-        <v>1064</v>
+        <v>532.5</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>1110208</t>
-        </is>
+      <c r="A127" s="1" t="n">
+        <v>1110208</v>
       </c>
       <c r="B127" t="n">
         <v>57.45370370370371</v>
@@ -5788,10 +5536,10 @@
         <v>0.7488197088241577</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127" t="n">
-        <v>9.6875</v>
+        <v>18.375</v>
       </c>
       <c r="F127" t="n">
         <v>0.8736200928688049</v>
@@ -5809,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="K127" t="n">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="L127" t="n">
         <v>0.8282395601272583</v>
@@ -5818,14 +5566,12 @@
         <v>5</v>
       </c>
       <c r="N127" t="n">
-        <v>719.5</v>
+        <v>360.25</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>1110209</t>
-        </is>
+      <c r="A128" s="1" t="n">
+        <v>1110209</v>
       </c>
       <c r="B128" t="n">
         <v>60.96804991559063</v>
@@ -5837,13 +5583,13 @@
         <v>2</v>
       </c>
       <c r="E128" t="n">
-        <v>5.125</v>
+        <v>9.25</v>
       </c>
       <c r="F128" t="n">
         <v>0.9080865383148193</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H128" t="n">
         <v>14.36111111111111</v>
@@ -5855,7 +5601,7 @@
         <v>3</v>
       </c>
       <c r="K128" t="n">
-        <v>67.5</v>
+        <v>34.25</v>
       </c>
       <c r="L128" t="n">
         <v>0.564638614654541</v>
@@ -5864,14 +5610,12 @@
         <v>5</v>
       </c>
       <c r="N128" t="n">
-        <v>1044</v>
+        <v>522.5</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>1110210</t>
-        </is>
+      <c r="A129" s="1" t="n">
+        <v>1110210</v>
       </c>
       <c r="B129" t="n">
         <v>54.74761763052607</v>
@@ -5883,7 +5627,7 @@
         <v>2</v>
       </c>
       <c r="E129" t="n">
-        <v>7.4375</v>
+        <v>13.875</v>
       </c>
       <c r="F129" t="n">
         <v>0.8002035617828369</v>
@@ -5901,7 +5645,7 @@
         <v>3</v>
       </c>
       <c r="K129" t="n">
-        <v>72</v>
+        <v>36.5</v>
       </c>
       <c r="L129" t="n">
         <v>0.7067480087280273</v>
@@ -5910,14 +5654,12 @@
         <v>5</v>
       </c>
       <c r="N129" t="n">
-        <v>1123.5</v>
+        <v>562.25</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>1110211</t>
-        </is>
+      <c r="A130" s="1" t="n">
+        <v>1110211</v>
       </c>
       <c r="B130" t="n">
         <v>65.17105990948926</v>
@@ -5926,10 +5668,10 @@
         <v>0.5522591471672058</v>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E130" t="n">
-        <v>9.0625</v>
+        <v>17.125</v>
       </c>
       <c r="F130" t="n">
         <v>0.8409625291824341</v>
@@ -5944,10 +5686,10 @@
         <v>0.8373373746871948</v>
       </c>
       <c r="J130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K130" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="L130" t="n">
         <v>0.732828676700592</v>
@@ -5956,14 +5698,12 @@
         <v>5</v>
       </c>
       <c r="N130" t="n">
-        <v>900.5</v>
+        <v>450.75</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>1110212</t>
-        </is>
+      <c r="A131" s="1" t="n">
+        <v>1110212</v>
       </c>
       <c r="B131" t="n">
         <v>65.89731568914306</v>
@@ -5972,10 +5712,10 @@
         <v>0.8277767300605774</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E131" t="n">
-        <v>8.25</v>
+        <v>15.5</v>
       </c>
       <c r="F131" t="n">
         <v>0.7685868740081787</v>
@@ -5993,7 +5733,7 @@
         <v>3</v>
       </c>
       <c r="K131" t="n">
-        <v>66.5</v>
+        <v>33.75</v>
       </c>
       <c r="L131" t="n">
         <v>0.7104842662811279</v>
@@ -6002,14 +5742,12 @@
         <v>5</v>
       </c>
       <c r="N131" t="n">
-        <v>929.5</v>
+        <v>465.25</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>1110213</t>
-        </is>
+      <c r="A132" s="1" t="n">
+        <v>1110213</v>
       </c>
       <c r="B132" t="n">
         <v>41.68531356194006</v>
@@ -6018,10 +5756,10 @@
         <v>0.7880979776382446</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" t="n">
-        <v>3.875</v>
+        <v>6.75</v>
       </c>
       <c r="F132" t="n">
         <v>0.8239110708236694</v>
@@ -6039,7 +5777,7 @@
         <v>3</v>
       </c>
       <c r="K132" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="L132" t="n">
         <v>0.6884533166885376</v>
@@ -6048,14 +5786,12 @@
         <v>5</v>
       </c>
       <c r="N132" t="n">
-        <v>913</v>
+        <v>457</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>1110214</t>
-        </is>
+      <c r="A133" s="1" t="n">
+        <v>1110214</v>
       </c>
       <c r="B133" t="n">
         <v>14.03648068669528</v>
@@ -6065,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="n">
-        <v>1.125</v>
+        <v>1.25</v>
       </c>
       <c r="F133" t="n">
         <v>0.7787646651268005</v>
@@ -6083,7 +5819,7 @@
         <v>3</v>
       </c>
       <c r="K133" t="n">
-        <v>56</v>
+        <v>28.5</v>
       </c>
       <c r="L133" t="n">
         <v>0.4767873585224152</v>
@@ -6092,14 +5828,12 @@
         <v>5</v>
       </c>
       <c r="N133" t="n">
-        <v>836</v>
+        <v>418.5</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>1110215</t>
-        </is>
+      <c r="A134" s="1" t="n">
+        <v>1110215</v>
       </c>
       <c r="B134" t="n">
         <v>68.21377950518415</v>
@@ -6111,13 +5845,13 @@
         <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>5.875</v>
+        <v>10.75</v>
       </c>
       <c r="F134" t="n">
         <v>0.6292126178741455</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>4.416666666666667</v>
@@ -6129,7 +5863,7 @@
         <v>3</v>
       </c>
       <c r="K134" t="n">
-        <v>52.5</v>
+        <v>26.75</v>
       </c>
       <c r="L134" t="n">
         <v>0.7266452312469482</v>
@@ -6138,24 +5872,22 @@
         <v>5</v>
       </c>
       <c r="N134" t="n">
-        <v>946</v>
+        <v>473.5</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>1110216</t>
-        </is>
+      <c r="A135" s="1" t="n">
+        <v>1110216</v>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
         <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E135" t="n">
-        <v>10.8125</v>
+        <v>20.625</v>
       </c>
       <c r="F135" t="n">
         <v>0.5661180019378662</v>
@@ -6173,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="K135" t="n">
-        <v>60.5</v>
+        <v>30.75</v>
       </c>
       <c r="L135" t="n">
         <v>0.6748595237731934</v>
@@ -6182,14 +5914,12 @@
         <v>5</v>
       </c>
       <c r="N135" t="n">
-        <v>951</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>1110217</t>
-        </is>
+      <c r="A136" s="1" t="n">
+        <v>1110217</v>
       </c>
       <c r="B136" t="n">
         <v>82.75320357805273</v>
@@ -6201,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>5.375</v>
+        <v>9.75</v>
       </c>
       <c r="F136" t="n">
         <v>0.7668032646179199</v>
@@ -6219,7 +5949,7 @@
         <v>3</v>
       </c>
       <c r="K136" t="n">
-        <v>66</v>
+        <v>33.5</v>
       </c>
       <c r="L136" t="n">
         <v>0.7336738109588623</v>
@@ -6228,14 +5958,12 @@
         <v>5</v>
       </c>
       <c r="N136" t="n">
-        <v>899.5</v>
+        <v>450.25</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>1110218</t>
-        </is>
+      <c r="A137" s="1" t="n">
+        <v>1110218</v>
       </c>
       <c r="B137" t="n">
         <v>54.04061454849499</v>
@@ -6244,10 +5972,10 @@
         <v>0.6926129460334778</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137" t="n">
-        <v>2.9375</v>
+        <v>4.875</v>
       </c>
       <c r="F137" t="n">
         <v>0.769172191619873</v>
@@ -6265,7 +5993,7 @@
         <v>3</v>
       </c>
       <c r="K137" t="n">
-        <v>72</v>
+        <v>36.5</v>
       </c>
       <c r="L137" t="n">
         <v>0.7122310400009155</v>
@@ -6274,14 +6002,12 @@
         <v>5</v>
       </c>
       <c r="N137" t="n">
-        <v>932.5</v>
+        <v>466.75</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>1110219</t>
-        </is>
+      <c r="A138" s="1" t="n">
+        <v>1110219</v>
       </c>
       <c r="B138" t="n">
         <v>13.89920556107249</v>
@@ -6293,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="F138" t="n">
         <v>0.7599273920059204</v>
@@ -6311,7 +6037,7 @@
         <v>3</v>
       </c>
       <c r="K138" t="n">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="L138" t="n">
         <v>0.6935513615608215</v>
@@ -6320,14 +6046,12 @@
         <v>5</v>
       </c>
       <c r="N138" t="n">
-        <v>847.5</v>
+        <v>424.25</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>1110220</t>
-        </is>
+      <c r="A139" s="1" t="n">
+        <v>1110220</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
@@ -6337,7 +6061,7 @@
         <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>6.125</v>
+        <v>11.25</v>
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
@@ -6346,10 +6070,10 @@
         <v>0.7512275576591492</v>
       </c>
       <c r="J139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K139" t="n">
-        <v>80.5</v>
+        <v>40.75</v>
       </c>
       <c r="L139" t="n">
         <v>0.7564536333084106</v>
@@ -6358,14 +6082,12 @@
         <v>5</v>
       </c>
       <c r="N139" t="n">
-        <v>905.5</v>
+        <v>453.25</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>1110221</t>
-        </is>
+      <c r="A140" s="1" t="n">
+        <v>1110221</v>
       </c>
       <c r="B140" t="n">
         <v>56.37096297755021</v>
@@ -6374,10 +6096,10 @@
         <v>0.775701642036438</v>
       </c>
       <c r="D140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140" t="n">
-        <v>3.375</v>
+        <v>5.75</v>
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="n">
@@ -6393,7 +6115,7 @@
         <v>3</v>
       </c>
       <c r="K140" t="n">
-        <v>63.5</v>
+        <v>32.25</v>
       </c>
       <c r="L140" t="n">
         <v>0.6756742000579834</v>
@@ -6402,14 +6124,12 @@
         <v>5</v>
       </c>
       <c r="N140" t="n">
-        <v>962</v>
+        <v>481.5</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>1110222</t>
-        </is>
+      <c r="A141" s="1" t="n">
+        <v>1110222</v>
       </c>
       <c r="B141" t="n">
         <v>85.51745265210523</v>
@@ -6421,7 +6141,7 @@
         <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="F141" t="n">
         <v>0.6689144372940063</v>
@@ -6436,10 +6156,10 @@
         <v>0.7876960635185242</v>
       </c>
       <c r="J141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K141" t="n">
-        <v>80.5</v>
+        <v>40.75</v>
       </c>
       <c r="L141" t="n">
         <v>0.5680205821990967</v>
@@ -6448,14 +6168,12 @@
         <v>5</v>
       </c>
       <c r="N141" t="n">
-        <v>973</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>1110223</t>
-        </is>
+      <c r="A142" s="1" t="n">
+        <v>1110223</v>
       </c>
       <c r="B142" t="n">
         <v>139.8841951607909</v>
@@ -6464,10 +6182,10 @@
         <v>0.7027095556259155</v>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
-        <v>2.5625</v>
+        <v>4.125</v>
       </c>
       <c r="F142" t="n">
         <v>0.7825068831443787</v>
@@ -6485,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="K142" t="n">
-        <v>56.5</v>
+        <v>28.75</v>
       </c>
       <c r="L142" t="n">
         <v>0.7145567536354065</v>
@@ -6494,24 +6212,22 @@
         <v>5</v>
       </c>
       <c r="N142" t="n">
-        <v>871</v>
+        <v>436</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>1110224</t>
-        </is>
+      <c r="A143" s="1" t="n">
+        <v>1110224</v>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
         <v>0.578090488910675</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143" t="n">
-        <v>3.8125</v>
+        <v>6.625</v>
       </c>
       <c r="F143" t="n">
         <v>0.8415106534957886</v>
@@ -6529,7 +6245,7 @@
         <v>3</v>
       </c>
       <c r="K143" t="n">
-        <v>54</v>
+        <v>27.5</v>
       </c>
       <c r="L143" t="n">
         <v>0.7332358360290527</v>
@@ -6538,14 +6254,12 @@
         <v>5</v>
       </c>
       <c r="N143" t="n">
-        <v>916</v>
+        <v>458.5</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>1110225</t>
-        </is>
+      <c r="A144" s="1" t="n">
+        <v>1110225</v>
       </c>
       <c r="B144" t="n">
         <v>47.17777777777778</v>
@@ -6557,7 +6271,7 @@
         <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>4.8125</v>
+        <v>8.625</v>
       </c>
       <c r="F144" t="n">
         <v>0.6638814210891724</v>
@@ -6575,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="K144" t="n">
-        <v>44.5</v>
+        <v>22.75</v>
       </c>
       <c r="L144" t="n">
         <v>0.6942285299301147</v>
@@ -6584,14 +6298,12 @@
         <v>5</v>
       </c>
       <c r="N144" t="n">
-        <v>928.5</v>
+        <v>464.75</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>1110226</t>
-        </is>
+      <c r="A145" s="1" t="n">
+        <v>1110226</v>
       </c>
       <c r="B145" t="n">
         <v>53.50989876220702</v>
@@ -6603,7 +6315,7 @@
         <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>4.9375</v>
+        <v>8.875</v>
       </c>
       <c r="F145" t="n">
         <v>0.7472014427185059</v>
@@ -6621,7 +6333,7 @@
         <v>3</v>
       </c>
       <c r="K145" t="n">
-        <v>55.5</v>
+        <v>28.25</v>
       </c>
       <c r="L145" t="n">
         <v>0.5123750567436218</v>
@@ -6630,14 +6342,12 @@
         <v>5</v>
       </c>
       <c r="N145" t="n">
-        <v>537.5</v>
+        <v>269.25</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>1110227</t>
-        </is>
+      <c r="A146" s="1" t="n">
+        <v>1110227</v>
       </c>
       <c r="B146" t="n">
         <v>54.40183134274339</v>
@@ -6646,10 +6356,10 @@
         <v>0.349338173866272</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F146" t="n">
         <v>0.7540214657783508</v>
@@ -6667,7 +6377,7 @@
         <v>3</v>
       </c>
       <c r="K146" t="n">
-        <v>46</v>
+        <v>23.5</v>
       </c>
       <c r="L146" t="n">
         <v>0.6982858180999756</v>
@@ -6676,24 +6386,22 @@
         <v>5</v>
       </c>
       <c r="N146" t="n">
-        <v>948.5</v>
+        <v>474.75</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>1110228</t>
-        </is>
+      <c r="A147" s="1" t="n">
+        <v>1110228</v>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
         <v>0.6188170909881592</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147" t="n">
-        <v>7.6875</v>
+        <v>14.375</v>
       </c>
       <c r="F147" t="n">
         <v>0.709985613822937</v>
@@ -6708,10 +6416,10 @@
         <v>0.6126221418380737</v>
       </c>
       <c r="J147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K147" t="n">
-        <v>26.5</v>
+        <v>13.75</v>
       </c>
       <c r="L147" t="n">
         <v>0.6671911478042603</v>
@@ -6720,14 +6428,12 @@
         <v>5</v>
       </c>
       <c r="N147" t="n">
-        <v>829</v>
+        <v>415</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>1110229</t>
-        </is>
+      <c r="A148" s="1" t="n">
+        <v>1110229</v>
       </c>
       <c r="B148" t="n">
         <v>27.37954545454546</v>
@@ -6736,10 +6442,10 @@
         <v>0.748405396938324</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E148" t="n">
-        <v>4.0625</v>
+        <v>7.125</v>
       </c>
       <c r="F148" t="n">
         <v>0.9345546364784241</v>
@@ -6757,7 +6463,7 @@
         <v>3</v>
       </c>
       <c r="K148" t="n">
-        <v>53.5</v>
+        <v>27.25</v>
       </c>
       <c r="L148" t="n">
         <v>0.7035133838653564</v>
@@ -6766,14 +6472,12 @@
         <v>5</v>
       </c>
       <c r="N148" t="n">
-        <v>996.5</v>
+        <v>498.75</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>1110230</t>
-        </is>
+      <c r="A149" s="1" t="n">
+        <v>1110230</v>
       </c>
       <c r="B149" t="n">
         <v>29.03509630870321</v>
@@ -6782,10 +6486,10 @@
         <v>0.6432008147239685</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E149" t="n">
-        <v>15.375</v>
+        <v>29.75</v>
       </c>
       <c r="F149" t="n">
         <v>0.5093504786491394</v>
@@ -6803,7 +6507,7 @@
         <v>3</v>
       </c>
       <c r="K149" t="n">
-        <v>37.5</v>
+        <v>19.25</v>
       </c>
       <c r="L149" t="n">
         <v>0.7865796089172363</v>
@@ -6812,14 +6516,12 @@
         <v>5</v>
       </c>
       <c r="N149" t="n">
-        <v>986</v>
+        <v>493.5</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>1100116</t>
-        </is>
+      <c r="A150" s="1" t="n">
+        <v>1100116</v>
       </c>
       <c r="B150" t="n">
         <v>93.71523090767784</v>
@@ -6843,7 +6545,7 @@
         <v>3</v>
       </c>
       <c r="K150" t="n">
-        <v>56</v>
+        <v>28.5</v>
       </c>
       <c r="L150" t="n">
         <v>0.8745760917663574</v>
@@ -6852,17 +6554,15 @@
         <v>5</v>
       </c>
       <c r="N150" t="n">
-        <v>954</v>
+        <v>477.5</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>1010101</t>
-        </is>
+      <c r="A151" s="1" t="n">
+        <v>1070116</v>
       </c>
       <c r="B151" t="n">
-        <v>56.02498661431376</v>
+        <v>55.44796380090498</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="inlineStr"/>
@@ -6871,32 +6571,30 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="n">
-        <v>0.7033877372741699</v>
+        <v>0.4598566591739655</v>
       </c>
       <c r="J151" t="n">
         <v>3</v>
       </c>
       <c r="K151" t="n">
-        <v>36</v>
+        <v>14.25</v>
       </c>
       <c r="L151" t="n">
-        <v>0.642230749130249</v>
+        <v>0.5971336364746094</v>
       </c>
       <c r="M151" t="n">
         <v>5</v>
       </c>
       <c r="N151" t="n">
-        <v>500</v>
+        <v>465.25</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>1010102</t>
-        </is>
+      <c r="A152" s="1" t="n">
+        <v>1080421</v>
       </c>
       <c r="B152" t="n">
-        <v>69.75979156160699</v>
+        <v>73.62219101123596</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="inlineStr"/>
@@ -6905,32 +6603,30 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="n">
-        <v>0.680761456489563</v>
+        <v>0.4653689861297607</v>
       </c>
       <c r="J152" t="n">
         <v>3</v>
       </c>
       <c r="K152" t="n">
-        <v>46</v>
+        <v>32.5</v>
       </c>
       <c r="L152" t="n">
-        <v>0.6794728636741638</v>
+        <v>0.8492175340652466</v>
       </c>
       <c r="M152" t="n">
         <v>5</v>
       </c>
       <c r="N152" t="n">
-        <v>522</v>
+        <v>428.75</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>1020104</t>
-        </is>
+      <c r="A153" s="1" t="n">
+        <v>1080423</v>
       </c>
       <c r="B153" t="n">
-        <v>54.34013889491418</v>
+        <v>52.59748682246847</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr"/>
@@ -6939,32 +6635,30 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="n">
-        <v>0.5696417689323425</v>
+        <v>0.4742042422294617</v>
       </c>
       <c r="J153" t="n">
         <v>3</v>
       </c>
       <c r="K153" t="n">
-        <v>34</v>
+        <v>26.75</v>
       </c>
       <c r="L153" t="n">
-        <v>0.6992331147193909</v>
+        <v>0.2750939130783081</v>
       </c>
       <c r="M153" t="n">
         <v>5</v>
       </c>
       <c r="N153" t="n">
-        <v>761</v>
+        <v>255.75</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>1020107</t>
-        </is>
+      <c r="A154" s="1" t="n">
+        <v>1110301</v>
       </c>
       <c r="B154" t="n">
-        <v>67.22088106928533</v>
+        <v>70.18494959155998</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr"/>
@@ -6973,32 +6667,30 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="n">
-        <v>0.6538860201835632</v>
+        <v>0.8264512419700623</v>
       </c>
       <c r="J154" t="n">
         <v>3</v>
       </c>
       <c r="K154" t="n">
-        <v>36.5</v>
+        <v>26</v>
       </c>
       <c r="L154" t="n">
-        <v>0.8356797695159912</v>
+        <v>0.682830810546875</v>
       </c>
       <c r="M154" t="n">
         <v>5</v>
       </c>
       <c r="N154" t="n">
-        <v>934</v>
+        <v>527.75</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>1030101</t>
-        </is>
+      <c r="A155" s="1" t="n">
+        <v>1110302</v>
       </c>
       <c r="B155" t="n">
-        <v>57.04675019232462</v>
+        <v>85.63122522584541</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr"/>
@@ -7007,33 +6699,29 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="n">
-        <v>0.772061824798584</v>
+        <v>0.8162448406219482</v>
       </c>
       <c r="J155" t="n">
         <v>3</v>
       </c>
       <c r="K155" t="n">
-        <v>31</v>
+        <v>24.75</v>
       </c>
       <c r="L155" t="n">
-        <v>0.8453534841537476</v>
+        <v>0.7150863409042358</v>
       </c>
       <c r="M155" t="n">
         <v>5</v>
       </c>
       <c r="N155" t="n">
-        <v>814.5</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>1030104</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>121.6054342173687</v>
-      </c>
+      <c r="A156" s="1" t="n">
+        <v>1110303</v>
+      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr"/>
@@ -7041,32 +6729,30 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="n">
-        <v>0.5816059112548828</v>
+        <v>0.4100247025489807</v>
       </c>
       <c r="J156" t="n">
         <v>3</v>
       </c>
       <c r="K156" t="n">
-        <v>32.5</v>
+        <v>17.25</v>
       </c>
       <c r="L156" t="n">
-        <v>0.6828793287277222</v>
+        <v>0.5276075601577759</v>
       </c>
       <c r="M156" t="n">
         <v>5</v>
       </c>
       <c r="N156" t="n">
-        <v>781.5</v>
+        <v>545.25</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>1030105</t>
-        </is>
+      <c r="A157" s="1" t="n">
+        <v>1110304</v>
       </c>
       <c r="B157" t="n">
-        <v>49.45722041259501</v>
+        <v>80.41740335329193</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="inlineStr"/>
@@ -7075,31 +6761,31 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="n">
-        <v>0.6305414438247681</v>
+        <v>0.7657504081726074</v>
       </c>
       <c r="J157" t="n">
         <v>3</v>
       </c>
       <c r="K157" t="n">
-        <v>55.5</v>
+        <v>18</v>
       </c>
       <c r="L157" t="n">
-        <v>0.7732363939285278</v>
+        <v>0.5659937262535095</v>
       </c>
       <c r="M157" t="n">
         <v>5</v>
       </c>
       <c r="N157" t="n">
-        <v>806</v>
+        <v>542.25</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>1040104</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr"/>
+      <c r="A158" s="1" t="n">
+        <v>1110305</v>
+      </c>
+      <c r="B158" t="n">
+        <v>47.35190205413031</v>
+      </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr"/>
@@ -7107,29 +6793,27 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="n">
-        <v>0.6973846554756165</v>
+        <v>0.7370507717132568</v>
       </c>
       <c r="J158" t="n">
         <v>3</v>
       </c>
       <c r="K158" t="n">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="L158" t="n">
-        <v>0.680214524269104</v>
+        <v>0.6125612258911133</v>
       </c>
       <c r="M158" t="n">
         <v>5</v>
       </c>
       <c r="N158" t="n">
-        <v>775</v>
+        <v>525</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>1040106</t>
-        </is>
+      <c r="A159" s="1" t="n">
+        <v>1110306</v>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
@@ -7139,32 +6823,30 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="n">
-        <v>0.5597356557846069</v>
+        <v>0.7387571930885315</v>
       </c>
       <c r="J159" t="n">
         <v>3</v>
       </c>
       <c r="K159" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="L159" t="n">
-        <v>0.7375673651695251</v>
+        <v>0.5465166568756104</v>
       </c>
       <c r="M159" t="n">
         <v>5</v>
       </c>
       <c r="N159" t="n">
-        <v>898</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>1050101</t>
-        </is>
+      <c r="A160" s="1" t="n">
+        <v>1110307</v>
       </c>
       <c r="B160" t="n">
-        <v>65.58753375629685</v>
+        <v>110.8294011798464</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="inlineStr"/>
@@ -7173,32 +6855,30 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="n">
-        <v>0.7647584676742554</v>
+        <v>0.5683902502059937</v>
       </c>
       <c r="J160" t="n">
         <v>3</v>
       </c>
       <c r="K160" t="n">
-        <v>34</v>
+        <v>26.75</v>
       </c>
       <c r="L160" t="n">
-        <v>0.7430109977722168</v>
+        <v>0.5845332741737366</v>
       </c>
       <c r="M160" t="n">
         <v>5</v>
       </c>
       <c r="N160" t="n">
-        <v>951</v>
+        <v>543</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>1050102</t>
-        </is>
+      <c r="A161" s="1" t="n">
+        <v>1110308</v>
       </c>
       <c r="B161" t="n">
-        <v>70.44807517601635</v>
+        <v>69.23526286390438</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="inlineStr"/>
@@ -7207,32 +6887,30 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="n">
-        <v>0.7087328433990479</v>
+        <v>0.6053073406219482</v>
       </c>
       <c r="J161" t="n">
         <v>3</v>
       </c>
       <c r="K161" t="n">
-        <v>48.5</v>
+        <v>28.25</v>
       </c>
       <c r="L161" t="n">
-        <v>0.7016257047653198</v>
+        <v>0.7292897701263428</v>
       </c>
       <c r="M161" t="n">
         <v>5</v>
       </c>
       <c r="N161" t="n">
-        <v>943.5</v>
+        <v>530.25</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>1050104</t>
-        </is>
+      <c r="A162" s="1" t="n">
+        <v>1110309</v>
       </c>
       <c r="B162" t="n">
-        <v>72.82800000000002</v>
+        <v>47.91869918699187</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
@@ -7241,31 +6919,31 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="n">
-        <v>0.6754323244094849</v>
+        <v>0.5750089883804321</v>
       </c>
       <c r="J162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K162" t="n">
-        <v>16</v>
+        <v>17.25</v>
       </c>
       <c r="L162" t="n">
-        <v>0.693585991859436</v>
+        <v>0.6539128422737122</v>
       </c>
       <c r="M162" t="n">
         <v>5</v>
       </c>
       <c r="N162" t="n">
-        <v>870</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>1050105</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="A163" s="1" t="n">
+        <v>1110310</v>
+      </c>
+      <c r="B163" t="n">
+        <v>53.52612770012706</v>
+      </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr"/>
@@ -7273,29 +6951,27 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="n">
-        <v>0.6681312322616577</v>
+        <v>0.7747526168823242</v>
       </c>
       <c r="J163" t="n">
         <v>3</v>
       </c>
       <c r="K163" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L163" t="n">
-        <v>0.6844143867492676</v>
+        <v>0.5942062735557556</v>
       </c>
       <c r="M163" t="n">
         <v>5</v>
       </c>
       <c r="N163" t="n">
-        <v>827.5</v>
+        <v>534.25</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>1060101</t>
-        </is>
+      <c r="A164" s="1" t="n">
+        <v>1110311</v>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr"/>
@@ -7305,32 +6981,30 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="n">
-        <v>0.6311341524124146</v>
+        <v>0.6168196797370911</v>
       </c>
       <c r="J164" t="n">
         <v>3</v>
       </c>
       <c r="K164" t="n">
-        <v>57.5</v>
+        <v>25.75</v>
       </c>
       <c r="L164" t="n">
-        <v>0.7308644652366638</v>
+        <v>0.7462916374206543</v>
       </c>
       <c r="M164" t="n">
         <v>5</v>
       </c>
       <c r="N164" t="n">
-        <v>886.5</v>
+        <v>489.5</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>1060104</t>
-        </is>
+      <c r="A165" s="1" t="n">
+        <v>1110312</v>
       </c>
       <c r="B165" t="n">
-        <v>62.775</v>
+        <v>74.55930467028651</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr"/>
@@ -7339,31 +7013,31 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="n">
-        <v>0.6352252960205078</v>
+        <v>0.7842923402786255</v>
       </c>
       <c r="J165" t="n">
         <v>3</v>
       </c>
       <c r="K165" t="n">
-        <v>44</v>
+        <v>35.25</v>
       </c>
       <c r="L165" t="n">
-        <v>0.639520525932312</v>
+        <v>0.6451925039291382</v>
       </c>
       <c r="M165" t="n">
         <v>5</v>
       </c>
       <c r="N165" t="n">
-        <v>1005.5</v>
+        <v>539</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>1060105</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr"/>
+      <c r="A166" s="1" t="n">
+        <v>1110313</v>
+      </c>
+      <c r="B166" t="n">
+        <v>105.1686535123778</v>
+      </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr"/>
@@ -7371,31 +7045,31 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="n">
-        <v>0.5774576663970947</v>
+        <v>0.6339395046234131</v>
       </c>
       <c r="J166" t="n">
         <v>3</v>
       </c>
       <c r="K166" t="n">
-        <v>25</v>
+        <v>23.5</v>
       </c>
       <c r="L166" t="n">
-        <v>0.783703088760376</v>
+        <v>0.7011338472366333</v>
       </c>
       <c r="M166" t="n">
         <v>5</v>
       </c>
       <c r="N166" t="n">
-        <v>862.5</v>
+        <v>575.25</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>1060106a</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr"/>
+      <c r="A167" s="1" t="n">
+        <v>1110314</v>
+      </c>
+      <c r="B167" t="n">
+        <v>33.87148549090362</v>
+      </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr"/>
@@ -7403,31 +7077,31 @@
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="n">
-        <v>0.590177595615387</v>
+        <v>0.6285346150398254</v>
       </c>
       <c r="J167" t="n">
         <v>3</v>
       </c>
       <c r="K167" t="n">
-        <v>45.5</v>
+        <v>19.5</v>
       </c>
       <c r="L167" t="n">
-        <v>0.8094675540924072</v>
+        <v>0.7199323177337646</v>
       </c>
       <c r="M167" t="n">
         <v>5</v>
       </c>
       <c r="N167" t="n">
-        <v>909</v>
+        <v>517.25</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>1060106b</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr"/>
+      <c r="A168" s="1" t="n">
+        <v>1110315</v>
+      </c>
+      <c r="B168" t="n">
+        <v>46.15729347514622</v>
+      </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr"/>
@@ -7435,33 +7109,29 @@
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="n">
-        <v>0.7640188932418823</v>
+        <v>0.7429258823394775</v>
       </c>
       <c r="J168" t="n">
         <v>3</v>
       </c>
       <c r="K168" t="n">
-        <v>71</v>
+        <v>20.5</v>
       </c>
       <c r="L168" t="n">
-        <v>0.6780251264572144</v>
+        <v>0.7576414942741394</v>
       </c>
       <c r="M168" t="n">
         <v>5</v>
       </c>
       <c r="N168" t="n">
-        <v>867.5</v>
+        <v>503.25</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>1070116</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>55.44796380090498</v>
-      </c>
+      <c r="A169" s="1" t="n">
+        <v>1110316</v>
+      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr"/>
@@ -7469,32 +7139,30 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="n">
-        <v>0.4598566591739655</v>
+        <v>0.6880726218223572</v>
       </c>
       <c r="J169" t="n">
         <v>3</v>
       </c>
       <c r="K169" t="n">
-        <v>27.5</v>
+        <v>15.5</v>
       </c>
       <c r="L169" t="n">
-        <v>0.5971336364746094</v>
+        <v>0.7000515460968018</v>
       </c>
       <c r="M169" t="n">
         <v>5</v>
       </c>
       <c r="N169" t="n">
-        <v>929.5</v>
+        <v>465.5</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>1080421</t>
-        </is>
+      <c r="A170" s="1" t="n">
+        <v>1110317</v>
       </c>
       <c r="B170" t="n">
-        <v>73.62219101123596</v>
+        <v>60.29706652277115</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr"/>
@@ -7503,32 +7171,30 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="n">
-        <v>0.4653689861297607</v>
+        <v>0.6354477405548096</v>
       </c>
       <c r="J170" t="n">
         <v>3</v>
       </c>
       <c r="K170" t="n">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="L170" t="n">
-        <v>0.8492175340652466</v>
+        <v>0.7188889384269714</v>
       </c>
       <c r="M170" t="n">
         <v>5</v>
       </c>
       <c r="N170" t="n">
-        <v>856.5</v>
+        <v>485.25</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>1080423</t>
-        </is>
+      <c r="A171" s="1" t="n">
+        <v>1110318</v>
       </c>
       <c r="B171" t="n">
-        <v>52.59748682246847</v>
+        <v>53.13008328926494</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
@@ -7537,32 +7203,30 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="n">
-        <v>0.4742042422294617</v>
+        <v>0.7252143621444702</v>
       </c>
       <c r="J171" t="n">
         <v>3</v>
       </c>
       <c r="K171" t="n">
-        <v>52.5</v>
+        <v>29.75</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2750939130783081</v>
+        <v>0.6383742690086365</v>
       </c>
       <c r="M171" t="n">
         <v>5</v>
       </c>
       <c r="N171" t="n">
-        <v>510.5</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>1110301</t>
-        </is>
+      <c r="A172" s="1" t="n">
+        <v>1110319</v>
       </c>
       <c r="B172" t="n">
-        <v>70.18494959155998</v>
+        <v>90.28845943558902</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr"/>
@@ -7571,32 +7235,30 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="n">
-        <v>0.8264512419700623</v>
+        <v>0.6578299999237061</v>
       </c>
       <c r="J172" t="n">
         <v>3</v>
       </c>
       <c r="K172" t="n">
-        <v>51</v>
+        <v>24.25</v>
       </c>
       <c r="L172" t="n">
-        <v>0.682830810546875</v>
+        <v>0.6624307632446289</v>
       </c>
       <c r="M172" t="n">
         <v>5</v>
       </c>
       <c r="N172" t="n">
-        <v>1054.5</v>
+        <v>444.25</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="inlineStr">
-        <is>
-          <t>1110302</t>
-        </is>
+      <c r="A173" s="1" t="n">
+        <v>1110320</v>
       </c>
       <c r="B173" t="n">
-        <v>85.63122522584541</v>
+        <v>50.15824829568905</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr"/>
@@ -7605,29 +7267,27 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="n">
-        <v>0.8162448406219482</v>
+        <v>0.7707988619804382</v>
       </c>
       <c r="J173" t="n">
         <v>3</v>
       </c>
       <c r="K173" t="n">
-        <v>48.5</v>
+        <v>24.75</v>
       </c>
       <c r="L173" t="n">
-        <v>0.7150863409042358</v>
+        <v>0.7269974946975708</v>
       </c>
       <c r="M173" t="n">
         <v>5</v>
       </c>
       <c r="N173" t="n">
-        <v>1139</v>
+        <v>435.75</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="inlineStr">
-        <is>
-          <t>1110303</t>
-        </is>
+      <c r="A174" s="1" t="n">
+        <v>1110321</v>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
@@ -7637,33 +7297,29 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="n">
-        <v>0.4100247025489807</v>
+        <v>0.7792378067970276</v>
       </c>
       <c r="J174" t="n">
         <v>3</v>
       </c>
       <c r="K174" t="n">
-        <v>33.5</v>
+        <v>20.25</v>
       </c>
       <c r="L174" t="n">
-        <v>0.5276075601577759</v>
+        <v>0.7008092403411865</v>
       </c>
       <c r="M174" t="n">
         <v>5</v>
       </c>
       <c r="N174" t="n">
-        <v>1089.5</v>
+        <v>418.25</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="inlineStr">
-        <is>
-          <t>1110304</t>
-        </is>
-      </c>
-      <c r="B175" t="n">
-        <v>80.41740335329193</v>
-      </c>
+      <c r="A175" s="1" t="n">
+        <v>1110322</v>
+      </c>
+      <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr"/>
@@ -7671,32 +7327,30 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="n">
-        <v>0.7657504081726074</v>
+        <v>0.7544870376586914</v>
       </c>
       <c r="J175" t="n">
         <v>3</v>
       </c>
       <c r="K175" t="n">
-        <v>35</v>
+        <v>23.75</v>
       </c>
       <c r="L175" t="n">
-        <v>0.5659937262535095</v>
+        <v>0.685026228427887</v>
       </c>
       <c r="M175" t="n">
         <v>5</v>
       </c>
       <c r="N175" t="n">
-        <v>1083.5</v>
+        <v>441.75</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="inlineStr">
-        <is>
-          <t>1110305</t>
-        </is>
+      <c r="A176" s="1" t="n">
+        <v>1110323</v>
       </c>
       <c r="B176" t="n">
-        <v>47.35190205413031</v>
+        <v>55.17475779414482</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr"/>
@@ -7705,31 +7359,31 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="n">
-        <v>0.7370507717132568</v>
+        <v>0.6544265151023865</v>
       </c>
       <c r="J176" t="n">
         <v>3</v>
       </c>
       <c r="K176" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L176" t="n">
-        <v>0.6125612258911133</v>
+        <v>0.7712557315826416</v>
       </c>
       <c r="M176" t="n">
         <v>5</v>
       </c>
       <c r="N176" t="n">
-        <v>1049</v>
+        <v>492</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
-        <is>
-          <t>1110306</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="A177" s="1" t="n">
+        <v>1110324</v>
+      </c>
+      <c r="B177" t="n">
+        <v>67.15211565201855</v>
+      </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr"/>
@@ -7737,32 +7391,30 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="n">
-        <v>0.7387571930885315</v>
+        <v>0.832099974155426</v>
       </c>
       <c r="J177" t="n">
         <v>3</v>
       </c>
       <c r="K177" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="L177" t="n">
-        <v>0.5465166568756104</v>
+        <v>0.6921529173851013</v>
       </c>
       <c r="M177" t="n">
         <v>5</v>
       </c>
       <c r="N177" t="n">
-        <v>1015</v>
+        <v>469</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="inlineStr">
-        <is>
-          <t>1110307</t>
-        </is>
+      <c r="A178" s="1" t="n">
+        <v>1110325</v>
       </c>
       <c r="B178" t="n">
-        <v>110.8294011798464</v>
+        <v>46.44487776240499</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr"/>
@@ -7771,32 +7423,30 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="n">
-        <v>0.5683902502059937</v>
+        <v>0.8597308397293091</v>
       </c>
       <c r="J178" t="n">
         <v>3</v>
       </c>
       <c r="K178" t="n">
-        <v>52.5</v>
+        <v>27.5</v>
       </c>
       <c r="L178" t="n">
-        <v>0.5845332741737366</v>
+        <v>0.7789645195007324</v>
       </c>
       <c r="M178" t="n">
         <v>5</v>
       </c>
       <c r="N178" t="n">
-        <v>1085</v>
+        <v>483.75</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="inlineStr">
-        <is>
-          <t>1110308</t>
-        </is>
+      <c r="A179" s="1" t="n">
+        <v>1110326</v>
       </c>
       <c r="B179" t="n">
-        <v>69.23526286390438</v>
+        <v>45.27932795246319</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr"/>
@@ -7805,626 +7455,22 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="n">
-        <v>0.6053073406219482</v>
+        <v>0.7743117213249207</v>
       </c>
       <c r="J179" t="n">
         <v>3</v>
       </c>
       <c r="K179" t="n">
-        <v>55.5</v>
+        <v>31</v>
       </c>
       <c r="L179" t="n">
-        <v>0.7292897701263428</v>
+        <v>0.8238269090652466</v>
       </c>
       <c r="M179" t="n">
         <v>5</v>
       </c>
       <c r="N179" t="n">
-        <v>1059.5</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="inlineStr">
-        <is>
-          <t>1110309</t>
-        </is>
-      </c>
-      <c r="B180" t="n">
-        <v>47.91869918699187</v>
-      </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="n">
-        <v>0.5750089883804321</v>
-      </c>
-      <c r="J180" t="n">
-        <v>3</v>
-      </c>
-      <c r="K180" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0.6539128422737122</v>
-      </c>
-      <c r="M180" t="n">
-        <v>5</v>
-      </c>
-      <c r="N180" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="inlineStr">
-        <is>
-          <t>1110310</t>
-        </is>
-      </c>
-      <c r="B181" t="n">
-        <v>53.52612770012706</v>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="n">
-        <v>0.7747526168823242</v>
-      </c>
-      <c r="J181" t="n">
-        <v>3</v>
-      </c>
-      <c r="K181" t="n">
-        <v>43</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0.5942062735557556</v>
-      </c>
-      <c r="M181" t="n">
-        <v>5</v>
-      </c>
-      <c r="N181" t="n">
-        <v>1067.5</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="inlineStr">
-        <is>
-          <t>1110311</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="n">
-        <v>0.6168196797370911</v>
-      </c>
-      <c r="J182" t="n">
-        <v>3</v>
-      </c>
-      <c r="K182" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0.7462916374206543</v>
-      </c>
-      <c r="M182" t="n">
-        <v>5</v>
-      </c>
-      <c r="N182" t="n">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="inlineStr">
-        <is>
-          <t>1110312</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>74.55930467028651</v>
-      </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="n">
-        <v>0.7842923402786255</v>
-      </c>
-      <c r="J183" t="n">
-        <v>3</v>
-      </c>
-      <c r="K183" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0.6451925039291382</v>
-      </c>
-      <c r="M183" t="n">
-        <v>5</v>
-      </c>
-      <c r="N183" t="n">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="inlineStr">
-        <is>
-          <t>1110313</t>
-        </is>
-      </c>
-      <c r="B184" t="n">
-        <v>105.1686535123778</v>
-      </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="n">
-        <v>0.6339395046234131</v>
-      </c>
-      <c r="J184" t="n">
-        <v>3</v>
-      </c>
-      <c r="K184" t="n">
-        <v>46</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0.7011338472366333</v>
-      </c>
-      <c r="M184" t="n">
-        <v>5</v>
-      </c>
-      <c r="N184" t="n">
-        <v>1149.5</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="inlineStr">
-        <is>
-          <t>1110314</t>
-        </is>
-      </c>
-      <c r="B185" t="n">
-        <v>33.87148549090362</v>
-      </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="n">
-        <v>0.6285346150398254</v>
-      </c>
-      <c r="J185" t="n">
-        <v>3</v>
-      </c>
-      <c r="K185" t="n">
-        <v>38</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0.7199323177337646</v>
-      </c>
-      <c r="M185" t="n">
-        <v>5</v>
-      </c>
-      <c r="N185" t="n">
-        <v>1033.5</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="inlineStr">
-        <is>
-          <t>1110315</t>
-        </is>
-      </c>
-      <c r="B186" t="n">
-        <v>46.15729347514622</v>
-      </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="n">
-        <v>0.7429258823394775</v>
-      </c>
-      <c r="J186" t="n">
-        <v>3</v>
-      </c>
-      <c r="K186" t="n">
-        <v>40</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0.7576414942741394</v>
-      </c>
-      <c r="M186" t="n">
-        <v>5</v>
-      </c>
-      <c r="N186" t="n">
-        <v>1005.5</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="inlineStr">
-        <is>
-          <t>1110316</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="n">
-        <v>0.6880726218223572</v>
-      </c>
-      <c r="J187" t="n">
-        <v>3</v>
-      </c>
-      <c r="K187" t="n">
-        <v>30</v>
-      </c>
-      <c r="L187" t="n">
-        <v>0.7000515460968018</v>
-      </c>
-      <c r="M187" t="n">
-        <v>5</v>
-      </c>
-      <c r="N187" t="n">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="inlineStr">
-        <is>
-          <t>1110317</t>
-        </is>
-      </c>
-      <c r="B188" t="n">
-        <v>60.29706652277115</v>
-      </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="n">
-        <v>0.6354477405548096</v>
-      </c>
-      <c r="J188" t="n">
-        <v>3</v>
-      </c>
-      <c r="K188" t="n">
-        <v>55</v>
-      </c>
-      <c r="L188" t="n">
-        <v>0.7188889384269714</v>
-      </c>
-      <c r="M188" t="n">
-        <v>5</v>
-      </c>
-      <c r="N188" t="n">
-        <v>969.5</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="inlineStr">
-        <is>
-          <t>1110318</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>53.13008328926494</v>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="n">
-        <v>0.7252143621444702</v>
-      </c>
-      <c r="J189" t="n">
-        <v>3</v>
-      </c>
-      <c r="K189" t="n">
-        <v>58.5</v>
-      </c>
-      <c r="L189" t="n">
-        <v>0.6383742690086365</v>
-      </c>
-      <c r="M189" t="n">
-        <v>5</v>
-      </c>
-      <c r="N189" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="inlineStr">
-        <is>
-          <t>1110319</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>90.28845943558902</v>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="n">
-        <v>0.6578299999237061</v>
-      </c>
-      <c r="J190" t="n">
-        <v>3</v>
-      </c>
-      <c r="K190" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="L190" t="n">
-        <v>0.6624307632446289</v>
-      </c>
-      <c r="M190" t="n">
-        <v>5</v>
-      </c>
-      <c r="N190" t="n">
-        <v>887.5</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="inlineStr">
-        <is>
-          <t>1110320</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>50.15824829568905</v>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-      <c r="I191" t="n">
-        <v>0.7707988619804382</v>
-      </c>
-      <c r="J191" t="n">
-        <v>3</v>
-      </c>
-      <c r="K191" t="n">
-        <v>48.5</v>
-      </c>
-      <c r="L191" t="n">
-        <v>0.7269974946975708</v>
-      </c>
-      <c r="M191" t="n">
-        <v>5</v>
-      </c>
-      <c r="N191" t="n">
-        <v>870.5</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="inlineStr">
-        <is>
-          <t>1110321</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr"/>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="n">
-        <v>0.7792378067970276</v>
-      </c>
-      <c r="J192" t="n">
-        <v>3</v>
-      </c>
-      <c r="K192" t="n">
-        <v>39.5</v>
-      </c>
-      <c r="L192" t="n">
-        <v>0.7008092403411865</v>
-      </c>
-      <c r="M192" t="n">
-        <v>5</v>
-      </c>
-      <c r="N192" t="n">
-        <v>835.5</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="inlineStr">
-        <is>
-          <t>1110322</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-      <c r="I193" t="n">
-        <v>0.7544870376586914</v>
-      </c>
-      <c r="J193" t="n">
-        <v>3</v>
-      </c>
-      <c r="K193" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="L193" t="n">
-        <v>0.685026228427887</v>
-      </c>
-      <c r="M193" t="n">
-        <v>5</v>
-      </c>
-      <c r="N193" t="n">
-        <v>882.5</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="inlineStr">
-        <is>
-          <t>1110323</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>55.17475779414482</v>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="n">
-        <v>0.6544265151023865</v>
-      </c>
-      <c r="J194" t="n">
-        <v>3</v>
-      </c>
-      <c r="K194" t="n">
-        <v>65</v>
-      </c>
-      <c r="L194" t="n">
-        <v>0.7712557315826416</v>
-      </c>
-      <c r="M194" t="n">
-        <v>5</v>
-      </c>
-      <c r="N194" t="n">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="inlineStr">
-        <is>
-          <t>1110324</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>67.15211565201855</v>
-      </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="n">
-        <v>0.832099974155426</v>
-      </c>
-      <c r="J195" t="n">
-        <v>3</v>
-      </c>
-      <c r="K195" t="n">
-        <v>41</v>
-      </c>
-      <c r="L195" t="n">
-        <v>0.6921529173851013</v>
-      </c>
-      <c r="M195" t="n">
-        <v>5</v>
-      </c>
-      <c r="N195" t="n">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="inlineStr">
-        <is>
-          <t>1110325</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>46.44487776240499</v>
-      </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="n">
-        <v>0.8597308397293091</v>
-      </c>
-      <c r="J196" t="n">
-        <v>3</v>
-      </c>
-      <c r="K196" t="n">
-        <v>54</v>
-      </c>
-      <c r="L196" t="n">
-        <v>0.7789645195007324</v>
-      </c>
-      <c r="M196" t="n">
-        <v>5</v>
-      </c>
-      <c r="N196" t="n">
-        <v>966.5</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="inlineStr">
-        <is>
-          <t>1110326</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>45.27932795246319</v>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="n">
-        <v>0.7743117213249207</v>
-      </c>
-      <c r="J197" t="n">
-        <v>3</v>
-      </c>
-      <c r="K197" t="n">
-        <v>61</v>
-      </c>
-      <c r="L197" t="n">
-        <v>0.8238269090652466</v>
-      </c>
-      <c r="M197" t="n">
-        <v>5</v>
-      </c>
-      <c r="N197" t="n">
-        <v>1091</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
